--- a/pastResults/2015/humboldt 9-21.xlsx
+++ b/pastResults/2015/humboldt 9-21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger/Sites/XC-rData/pastResults/2015/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246BC485-4B0B-DA40-A1F7-0A0470495E89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244B11D6-B9A7-2D4A-BA36-A813EE6726EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6320" yWindow="5780" windowWidth="28020" windowHeight="22640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="5840" windowWidth="28020" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="493">
   <si>
     <r>
       <rPr>
@@ -4588,55 +4588,151 @@
     </r>
   </si>
   <si>
-    <t>73          Siepker, Adam                 Manson NW Webster     20:23.4
-74          Deitering, Adam              Emmetsburg                    20:31.0
-75          Carlson, Josh                    Southeast Valley              20:36.0
-76          Phillips, Brandt                Boone                                20:37.4
-77          Schreur, Andrew             GHV                                   20:37.7
-78          Kicklighter, Andrew        St. Edmond                       20:44.6
-79          Allen, Parker                    Hampton-Dumont          20:46.6
-80          Grefe, Jacob                     Hampton-Dumont          20:50.2
-81          Kester, Aleks                    Ogden                                20:52.3
-82          Berke, Joey                       IFA/AGWSR                      20:54.1
-83          Hutchison, Aaron            Emmetsburg                    20:56.2
-84          Rapp, Luke                        CGD                                    20:59.7
-85          Hanish, Maxwell              FD Public                           21:02.6
-86          Portillo, Justin                  CGD                                    21:04.5
-87          Arbaugh, Jacob                Eagle Grove                      21:04.9
-88          Lewiston, Isaac                Ogden                                21:05.4
-89          Portillo, Josh                    CGD                                    21:05.7
-90          Wirtz, Mason                   GHV                                   21:06.2
-91          Klaver, Hayden                CGD                                    21:09.2
-92          Mason, Zach                     Emmetsburg                    21:21.1
-93          VanHorn, Ben                  Hampton-Dumont          21:26.0
-94          Zolnosky, Cameron         IFA/AGWSR                      21:28.7
-95          Hanson, Koby                   Manson NW Webster     21:30.5
-96          Tiili, Nick                           Algona High                      21:31.6
-97          Kirsch, Jonathan              Pocahontas area             21:38.7
-98          Lee, Noah                         Boone                                21:39.3
-99          Groth, Daniel                   Emmetsburg                    21:46.5
-100        Nelson, TJ                         Manson NW Webster     21:52.8
-101        Patterson, Ethan             Boone                                21:53.0
-102        Duncan, Hunter               Manson NW Webster     21:58.8
-103        Harris, Takoda                  Emmetsburg                    22:03.5
-104        Montgomery, Nathan    Southeast Valley              22:04.7
-105        Long, Braxton                   Pocahontas area             22:16.1
-106        Frame, Cody                     Boone                                22:21.2
-107        Hamilton, Todd                Southeast Valley              22:26.2
-108        Hanson, Nathan              Pocahontas area             22:29.5
-109        Vanderham, Matt           Pocahontas area             22:36.1
-110        Hersom, Jared                  Pocahontas area             22:45.5
-111        Fogarty, Ben                     Bishop Garrigan               22:52.6
-112        Krukow, Carter                IFA/AGWSR                      22:57.4
-113        Carlson, Ben                     Southeast Valley              22:59.1
-114        Shelton, Isaac                   Hampton-Dumont          23:03.6
-115        Kramer, Jacob                  Pocahontas area             23:05.1
-116        Rosenbaum, Calen          CGD                                    23:09.6
-117        Viehauser, Marcel           IFA/AGWSR                      23:14.3
-118        Crook, Jakob                    Boone                                23:14.7
-119        Darling, Trevor                 Bishop Garrigan               23:15.5
-120        Zeimet, John                    Bishop Garrigan               25:03.5
-121        Thilges, Andrew               Bishop Garrigan               25:22.9</t>
+    <t>73          Siepker, Adam                 Manson NW Webster     20:23.4</t>
+  </si>
+  <si>
+    <t>74          Deitering, Adam              Emmetsburg                    20:31.0</t>
+  </si>
+  <si>
+    <t>75          Carlson, Josh                    Southeast Valley              20:36.0</t>
+  </si>
+  <si>
+    <t>76          Phillips, Brandt                Boone                                20:37.4</t>
+  </si>
+  <si>
+    <t>77          Schreur, Andrew             GHV                                   20:37.7</t>
+  </si>
+  <si>
+    <t>78          Kicklighter, Andrew        St. Edmond                       20:44.6</t>
+  </si>
+  <si>
+    <t>79          Allen, Parker                    Hampton-Dumont          20:46.6</t>
+  </si>
+  <si>
+    <t>80          Grefe, Jacob                     Hampton-Dumont          20:50.2</t>
+  </si>
+  <si>
+    <t>81          Kester, Aleks                    Ogden                                20:52.3</t>
+  </si>
+  <si>
+    <t>82          Berke, Joey                       IFA/AGWSR                      20:54.1</t>
+  </si>
+  <si>
+    <t>83          Hutchison, Aaron            Emmetsburg                    20:56.2</t>
+  </si>
+  <si>
+    <t>84          Rapp, Luke                        CGD                                    20:59.7</t>
+  </si>
+  <si>
+    <t>85          Hanish, Maxwell              FD Public                           21:02.6</t>
+  </si>
+  <si>
+    <t>86          Portillo, Justin                  CGD                                    21:04.5</t>
+  </si>
+  <si>
+    <t>87          Arbaugh, Jacob                Eagle Grove                      21:04.9</t>
+  </si>
+  <si>
+    <t>88          Lewiston, Isaac                Ogden                                21:05.4</t>
+  </si>
+  <si>
+    <t>89          Portillo, Josh                    CGD                                    21:05.7</t>
+  </si>
+  <si>
+    <t>90          Wirtz, Mason                   GHV                                   21:06.2</t>
+  </si>
+  <si>
+    <t>91          Klaver, Hayden                CGD                                    21:09.2</t>
+  </si>
+  <si>
+    <t>92          Mason, Zach                     Emmetsburg                    21:21.1</t>
+  </si>
+  <si>
+    <t>93          VanHorn, Ben                  Hampton-Dumont          21:26.0</t>
+  </si>
+  <si>
+    <t>94          Zolnosky, Cameron         IFA/AGWSR                      21:28.7</t>
+  </si>
+  <si>
+    <t>95          Hanson, Koby                   Manson NW Webster     21:30.5</t>
+  </si>
+  <si>
+    <t>96          Tiili, Nick                           Algona High                      21:31.6</t>
+  </si>
+  <si>
+    <t>97          Kirsch, Jonathan              Pocahontas area             21:38.7</t>
+  </si>
+  <si>
+    <t>98          Lee, Noah                         Boone                                21:39.3</t>
+  </si>
+  <si>
+    <t>99          Groth, Daniel                   Emmetsburg                    21:46.5</t>
+  </si>
+  <si>
+    <t>100        Nelson, TJ                         Manson NW Webster     21:52.8</t>
+  </si>
+  <si>
+    <t>101        Patterson, Ethan             Boone                                21:53.0</t>
+  </si>
+  <si>
+    <t>102        Duncan, Hunter               Manson NW Webster     21:58.8</t>
+  </si>
+  <si>
+    <t>103        Harris, Takoda                  Emmetsburg                    22:03.5</t>
+  </si>
+  <si>
+    <t>104        Montgomery, Nathan    Southeast Valley              22:04.7</t>
+  </si>
+  <si>
+    <t>105        Long, Braxton                   Pocahontas area             22:16.1</t>
+  </si>
+  <si>
+    <t>106        Frame, Cody                     Boone                                22:21.2</t>
+  </si>
+  <si>
+    <t>107        Hamilton, Todd                Southeast Valley              22:26.2</t>
+  </si>
+  <si>
+    <t>108        Hanson, Nathan              Pocahontas area             22:29.5</t>
+  </si>
+  <si>
+    <t>109        Vanderham, Matt           Pocahontas area             22:36.1</t>
+  </si>
+  <si>
+    <t>110        Hersom, Jared                  Pocahontas area             22:45.5</t>
+  </si>
+  <si>
+    <t>111        Fogarty, Ben                     Bishop Garrigan               22:52.6</t>
+  </si>
+  <si>
+    <t>112        Krukow, Carter                IFA/AGWSR                      22:57.4</t>
+  </si>
+  <si>
+    <t>113        Carlson, Ben                     Southeast Valley              22:59.1</t>
+  </si>
+  <si>
+    <t>114        Shelton, Isaac                   Hampton-Dumont          23:03.6</t>
+  </si>
+  <si>
+    <t>115        Kramer, Jacob                  Pocahontas area             23:05.1</t>
+  </si>
+  <si>
+    <t>116        Rosenbaum, Calen          CGD                                    23:09.6</t>
+  </si>
+  <si>
+    <t>117        Viehauser, Marcel           IFA/AGWSR                      23:14.3</t>
+  </si>
+  <si>
+    <t>118        Crook, Jakob                    Boone                                23:14.7</t>
+  </si>
+  <si>
+    <t>119        Darling, Trevor                 Bishop Garrigan               23:15.5</t>
+  </si>
+  <si>
+    <t>120        Zeimet, John                    Bishop Garrigan               25:03.5</t>
+  </si>
+  <si>
+    <t>121        Thilges, Andrew               Bishop Garrigan               25:22.9</t>
   </si>
 </sst>
 </file>
@@ -4671,12 +4767,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4691,7 +4793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4722,17 +4824,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4742,6 +4841,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5081,10 +5186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P231"/>
+  <dimension ref="A1:P278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="H245" sqref="H245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5105,33 +5210,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="2">
         <v>52</v>
       </c>
@@ -5168,10 +5273,10 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="2">
         <v>53</v>
       </c>
@@ -5208,10 +5313,10 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="2">
         <v>134</v>
       </c>
@@ -5246,10 +5351,10 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="2">
         <v>149</v>
       </c>
@@ -5286,10 +5391,10 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="2">
         <v>167</v>
       </c>
@@ -5326,10 +5431,10 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="2">
         <v>167</v>
       </c>
@@ -5366,10 +5471,10 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="2">
         <v>214</v>
       </c>
@@ -5406,10 +5511,10 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="2">
         <v>218</v>
       </c>
@@ -5444,10 +5549,10 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="2">
         <v>244</v>
       </c>
@@ -5484,10 +5589,10 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="2">
         <v>249</v>
       </c>
@@ -5524,10 +5629,10 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="2">
         <v>251</v>
       </c>
@@ -5564,10 +5669,10 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="11"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="2">
         <v>274</v>
       </c>
@@ -5602,10 +5707,10 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="2">
         <v>324</v>
       </c>
@@ -5638,10 +5743,10 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="11"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="2">
         <v>349</v>
       </c>
@@ -5678,10 +5783,10 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="11"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="2">
         <v>402</v>
       </c>
@@ -5716,10 +5821,10 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="2">
         <v>456</v>
       </c>
@@ -5752,10 +5857,10 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="11"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="2">
         <v>461</v>
       </c>
@@ -5788,10 +5893,10 @@
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="11"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="2">
         <v>519</v>
       </c>
@@ -5821,43 +5926,43 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
     </row>
     <row r="21" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13" t="s">
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="13"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="12">
@@ -5867,16 +5972,16 @@
       <c r="C22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15" t="s">
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="15"/>
+      <c r="I22" s="14"/>
     </row>
     <row r="23" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="12">
@@ -5886,16 +5991,16 @@
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15" t="s">
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="15"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="12">
@@ -5905,16 +6010,16 @@
       <c r="C24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15" t="s">
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I24" s="15"/>
+      <c r="I24" s="14"/>
     </row>
     <row r="25" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="12">
@@ -5924,16 +6029,16 @@
       <c r="C25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15" t="s">
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I25" s="15"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="12">
@@ -5943,16 +6048,16 @@
       <c r="C26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15" t="s">
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="I26" s="15"/>
+      <c r="I26" s="14"/>
     </row>
     <row r="27" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="12">
@@ -5962,16 +6067,16 @@
       <c r="C27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="15" t="s">
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="15"/>
+      <c r="I27" s="14"/>
     </row>
     <row r="28" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="12">
@@ -5981,16 +6086,16 @@
       <c r="C28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="15" t="s">
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="15"/>
+      <c r="I28" s="14"/>
     </row>
     <row r="29" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="12">
@@ -6000,16 +6105,16 @@
       <c r="C29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="15" t="s">
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="I29" s="15"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="12">
@@ -6019,16 +6124,16 @@
       <c r="C30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="15" t="s">
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="I30" s="15"/>
+      <c r="I30" s="14"/>
     </row>
     <row r="31" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="12">
@@ -6038,16 +6143,16 @@
       <c r="C31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="15" t="s">
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="I31" s="15"/>
+      <c r="I31" s="14"/>
     </row>
     <row r="32" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="12">
@@ -6057,16 +6162,16 @@
       <c r="C32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="15" t="s">
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="I32" s="15"/>
+      <c r="I32" s="14"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="12">
@@ -6076,16 +6181,16 @@
       <c r="C33" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="15" t="s">
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I33" s="15"/>
+      <c r="I33" s="14"/>
     </row>
     <row r="34" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="12">
@@ -6095,16 +6200,16 @@
       <c r="C34" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="15" t="s">
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="I34" s="15"/>
+      <c r="I34" s="14"/>
     </row>
     <row r="35" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="12">
@@ -6114,16 +6219,16 @@
       <c r="C35" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="15" t="s">
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="I35" s="15"/>
+      <c r="I35" s="14"/>
     </row>
     <row r="36" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="12">
@@ -6133,16 +6238,16 @@
       <c r="C36" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="15" t="s">
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="I36" s="15"/>
+      <c r="I36" s="14"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="12">
@@ -6152,16 +6257,16 @@
       <c r="C37" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="15" t="s">
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="I37" s="15"/>
+      <c r="I37" s="14"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="12">
@@ -6171,16 +6276,16 @@
       <c r="C38" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="15" t="s">
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="I38" s="15"/>
+      <c r="I38" s="14"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="12">
@@ -6190,16 +6295,16 @@
       <c r="C39" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="15" t="s">
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I39" s="15"/>
+      <c r="I39" s="14"/>
     </row>
     <row r="40" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="12">
@@ -6209,16 +6314,16 @@
       <c r="C40" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="15" t="s">
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="I40" s="15"/>
+      <c r="I40" s="14"/>
     </row>
     <row r="41" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="12">
@@ -6228,16 +6333,16 @@
       <c r="C41" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="15" t="s">
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="I41" s="15"/>
+      <c r="I41" s="14"/>
     </row>
     <row r="42" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="12">
@@ -6247,16 +6352,16 @@
       <c r="C42" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="15" t="s">
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="I42" s="15"/>
+      <c r="I42" s="14"/>
     </row>
     <row r="43" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="12">
@@ -6266,16 +6371,16 @@
       <c r="C43" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="15" t="s">
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="I43" s="15"/>
+      <c r="I43" s="14"/>
     </row>
     <row r="44" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="12">
@@ -6285,16 +6390,16 @@
       <c r="C44" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="15" t="s">
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="I44" s="15"/>
+      <c r="I44" s="14"/>
     </row>
     <row r="45" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="12">
@@ -6304,16 +6409,16 @@
       <c r="C45" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="15" t="s">
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="I45" s="15"/>
+      <c r="I45" s="14"/>
     </row>
     <row r="46" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="12">
@@ -6323,16 +6428,16 @@
       <c r="C46" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="15" t="s">
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="I46" s="15"/>
+      <c r="I46" s="14"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="12">
@@ -6342,16 +6447,16 @@
       <c r="C47" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="15" t="s">
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="I47" s="15"/>
+      <c r="I47" s="14"/>
     </row>
     <row r="48" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="12">
@@ -6361,16 +6466,16 @@
       <c r="C48" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="15" t="s">
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="I48" s="15"/>
+      <c r="I48" s="14"/>
     </row>
     <row r="49" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="12">
@@ -6380,16 +6485,16 @@
       <c r="C49" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="15" t="s">
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="I49" s="15"/>
+      <c r="I49" s="14"/>
     </row>
     <row r="50" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="12">
@@ -6399,16 +6504,16 @@
       <c r="C50" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="15" t="s">
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="I50" s="15"/>
+      <c r="I50" s="14"/>
     </row>
     <row r="51" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="12">
@@ -6418,16 +6523,16 @@
       <c r="C51" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="15" t="s">
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="I51" s="15"/>
+      <c r="I51" s="14"/>
     </row>
     <row r="52" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="12">
@@ -6437,16 +6542,16 @@
       <c r="C52" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D52" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="15" t="s">
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="I52" s="15"/>
+      <c r="I52" s="14"/>
     </row>
     <row r="53" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="12">
@@ -6456,16 +6561,16 @@
       <c r="C53" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D53" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="15" t="s">
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="I53" s="15"/>
+      <c r="I53" s="14"/>
     </row>
     <row r="54" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="12">
@@ -6475,16 +6580,16 @@
       <c r="C54" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="15" t="s">
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="I54" s="15"/>
+      <c r="I54" s="14"/>
     </row>
     <row r="55" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="12">
@@ -6494,16 +6599,16 @@
       <c r="C55" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="15" t="s">
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="I55" s="15"/>
+      <c r="I55" s="14"/>
     </row>
     <row r="56" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="12">
@@ -6513,16 +6618,16 @@
       <c r="C56" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="15" t="s">
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="I56" s="15"/>
+      <c r="I56" s="14"/>
     </row>
     <row r="57" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="12">
@@ -6532,16 +6637,16 @@
       <c r="C57" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="15" t="s">
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="I57" s="15"/>
+      <c r="I57" s="14"/>
     </row>
     <row r="58" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="12">
@@ -6551,16 +6656,16 @@
       <c r="C58" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D58" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="15" t="s">
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I58" s="15"/>
+      <c r="I58" s="14"/>
     </row>
     <row r="59" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="12">
@@ -6570,16 +6675,16 @@
       <c r="C59" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="15" t="s">
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="I59" s="15"/>
+      <c r="I59" s="14"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="12">
@@ -6589,16 +6694,16 @@
       <c r="C60" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="15" t="s">
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="I60" s="15"/>
+      <c r="I60" s="14"/>
     </row>
     <row r="61" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="12">
@@ -6608,16 +6713,16 @@
       <c r="C61" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="15" t="s">
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="I61" s="15"/>
+      <c r="I61" s="14"/>
     </row>
     <row r="62" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="12">
@@ -6627,16 +6732,16 @@
       <c r="C62" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D62" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="15" t="s">
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="I62" s="15"/>
+      <c r="I62" s="14"/>
     </row>
     <row r="63" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="12">
@@ -6646,16 +6751,16 @@
       <c r="C63" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="15" t="s">
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="I63" s="15"/>
+      <c r="I63" s="14"/>
     </row>
     <row r="64" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="12">
@@ -6665,16 +6770,16 @@
       <c r="C64" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D64" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="15" t="s">
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="I64" s="15"/>
+      <c r="I64" s="14"/>
     </row>
     <row r="65" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="12">
@@ -6684,16 +6789,16 @@
       <c r="C65" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="D65" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="15" t="s">
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="I65" s="15"/>
+      <c r="I65" s="14"/>
     </row>
     <row r="66" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="12">
@@ -6703,16 +6808,16 @@
       <c r="C66" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D66" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="15" t="s">
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="I66" s="15"/>
+      <c r="I66" s="14"/>
     </row>
     <row r="67" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="12">
@@ -6722,16 +6827,16 @@
       <c r="C67" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="D67" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="15" t="s">
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I67" s="15"/>
+      <c r="I67" s="14"/>
     </row>
     <row r="68" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="12">
@@ -6741,16 +6846,16 @@
       <c r="C68" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="D68" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="15" t="s">
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="I68" s="15"/>
+      <c r="I68" s="14"/>
     </row>
     <row r="69" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="12">
@@ -6760,16 +6865,16 @@
       <c r="C69" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D69" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="15" t="s">
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="I69" s="15"/>
+      <c r="I69" s="14"/>
     </row>
     <row r="70" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="12">
@@ -6779,16 +6884,16 @@
       <c r="C70" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D70" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="15" t="s">
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="I70" s="15"/>
+      <c r="I70" s="14"/>
     </row>
     <row r="71" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="12">
@@ -6798,16 +6903,16 @@
       <c r="C71" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="15" t="s">
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="I71" s="15"/>
+      <c r="I71" s="14"/>
     </row>
     <row r="72" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="12">
@@ -6817,16 +6922,16 @@
       <c r="C72" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D72" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="15" t="s">
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="I72" s="15"/>
+      <c r="I72" s="14"/>
     </row>
     <row r="73" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="12">
@@ -6836,16 +6941,16 @@
       <c r="C73" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D73" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="15" t="s">
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="I73" s="15"/>
+      <c r="I73" s="14"/>
     </row>
     <row r="74" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="12">
@@ -6855,16 +6960,16 @@
       <c r="C74" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="D74" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="15" t="s">
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="I74" s="15"/>
+      <c r="I74" s="14"/>
     </row>
     <row r="75" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="12">
@@ -6874,16 +6979,16 @@
       <c r="C75" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="D75" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="15" t="s">
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="I75" s="15"/>
+      <c r="I75" s="14"/>
     </row>
     <row r="76" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="12">
@@ -6893,16 +6998,16 @@
       <c r="C76" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="D76" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="15" t="s">
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="I76" s="15"/>
+      <c r="I76" s="14"/>
     </row>
     <row r="77" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="12">
@@ -6912,16 +7017,16 @@
       <c r="C77" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="D77" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="15" t="s">
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="I77" s="15"/>
+      <c r="I77" s="14"/>
     </row>
     <row r="78" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="12">
@@ -6931,16 +7036,16 @@
       <c r="C78" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D78" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="15" t="s">
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I78" s="15"/>
+      <c r="I78" s="14"/>
     </row>
     <row r="79" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="12">
@@ -6950,16 +7055,16 @@
       <c r="C79" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D79" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="15" t="s">
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="I79" s="15"/>
+      <c r="I79" s="14"/>
     </row>
     <row r="80" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="12">
@@ -6969,16 +7074,16 @@
       <c r="C80" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D80" s="14" t="s">
+      <c r="D80" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="15" t="s">
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="I80" s="15"/>
+      <c r="I80" s="14"/>
     </row>
     <row r="81" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="12">
@@ -6988,16 +7093,16 @@
       <c r="C81" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="D81" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="15" t="s">
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="I81" s="15"/>
+      <c r="I81" s="14"/>
     </row>
     <row r="82" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="12">
@@ -7007,16 +7112,16 @@
       <c r="C82" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D82" s="14" t="s">
+      <c r="D82" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="15" t="s">
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="I82" s="15"/>
+      <c r="I82" s="14"/>
     </row>
     <row r="83" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="12">
@@ -7026,16 +7131,16 @@
       <c r="C83" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D83" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="15" t="s">
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="I83" s="15"/>
+      <c r="I83" s="14"/>
     </row>
     <row r="84" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="12">
@@ -7045,16 +7150,16 @@
       <c r="C84" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D84" s="14" t="s">
+      <c r="D84" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="15" t="s">
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="I84" s="15"/>
+      <c r="I84" s="14"/>
     </row>
     <row r="85" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="12">
@@ -7064,16 +7169,16 @@
       <c r="C85" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="D85" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="15" t="s">
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="I85" s="15"/>
+      <c r="I85" s="14"/>
     </row>
     <row r="86" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="12">
@@ -7083,16 +7188,16 @@
       <c r="C86" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D86" s="14" t="s">
+      <c r="D86" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="15" t="s">
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="I86" s="15"/>
+      <c r="I86" s="14"/>
     </row>
     <row r="87" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="12">
@@ -7102,16 +7207,16 @@
       <c r="C87" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D87" s="14" t="s">
+      <c r="D87" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="15" t="s">
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="I87" s="15"/>
+      <c r="I87" s="14"/>
     </row>
     <row r="88" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="12">
@@ -7121,16 +7226,16 @@
       <c r="C88" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D88" s="14" t="s">
+      <c r="D88" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="15" t="s">
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="I88" s="15"/>
+      <c r="I88" s="14"/>
     </row>
     <row r="89" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="12">
@@ -7140,16 +7245,16 @@
       <c r="C89" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="D89" s="14" t="s">
+      <c r="D89" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="15" t="s">
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="I89" s="15"/>
+      <c r="I89" s="14"/>
     </row>
     <row r="90" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="12">
@@ -7159,16 +7264,16 @@
       <c r="C90" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D90" s="14" t="s">
+      <c r="D90" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="15" t="s">
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="I90" s="15"/>
+      <c r="I90" s="14"/>
     </row>
     <row r="91" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="12">
@@ -7178,16 +7283,16 @@
       <c r="C91" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D91" s="14" t="s">
+      <c r="D91" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="15" t="s">
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="I91" s="15"/>
+      <c r="I91" s="14"/>
     </row>
     <row r="92" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="12">
@@ -7197,16 +7302,16 @@
       <c r="C92" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="D92" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="15" t="s">
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="I92" s="15"/>
+      <c r="I92" s="14"/>
     </row>
     <row r="93" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="12">
@@ -7216,16 +7321,16 @@
       <c r="C93" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D93" s="14" t="s">
+      <c r="D93" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="15" t="s">
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="I93" s="15"/>
+      <c r="I93" s="14"/>
     </row>
     <row r="94" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="12">
@@ -7235,16 +7340,16 @@
       <c r="C94" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D94" s="14" t="s">
+      <c r="D94" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="15" t="s">
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="I94" s="15"/>
+      <c r="I94" s="14"/>
     </row>
     <row r="95" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="12">
@@ -7254,16 +7359,16 @@
       <c r="C95" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D95" s="14" t="s">
+      <c r="D95" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="15" t="s">
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="I95" s="15"/>
+      <c r="I95" s="14"/>
     </row>
     <row r="96" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="12">
@@ -7273,16 +7378,16 @@
       <c r="C96" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D96" s="14" t="s">
+      <c r="D96" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="15" t="s">
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="I96" s="15"/>
+      <c r="I96" s="14"/>
     </row>
     <row r="97" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="12">
@@ -7292,16 +7397,16 @@
       <c r="C97" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D97" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="15" t="s">
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="I97" s="15"/>
+      <c r="I97" s="14"/>
     </row>
     <row r="98" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="12">
@@ -7311,16 +7416,16 @@
       <c r="C98" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D98" s="14" t="s">
+      <c r="D98" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="15" t="s">
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="I98" s="15"/>
+      <c r="I98" s="14"/>
     </row>
     <row r="99" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="12">
@@ -7330,16 +7435,16 @@
       <c r="C99" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D99" s="14" t="s">
+      <c r="D99" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="15" t="s">
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="I99" s="15"/>
+      <c r="I99" s="14"/>
     </row>
     <row r="100" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="12">
@@ -7349,16 +7454,16 @@
       <c r="C100" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D100" s="14" t="s">
+      <c r="D100" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="15" t="s">
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="I100" s="15"/>
+      <c r="I100" s="14"/>
     </row>
     <row r="101" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="12">
@@ -7368,16 +7473,16 @@
       <c r="C101" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D101" s="14" t="s">
+      <c r="D101" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="15" t="s">
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="I101" s="15"/>
+      <c r="I101" s="14"/>
     </row>
     <row r="102" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="12">
@@ -7387,16 +7492,16 @@
       <c r="C102" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D102" s="14" t="s">
+      <c r="D102" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="15" t="s">
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="I102" s="15"/>
+      <c r="I102" s="14"/>
     </row>
     <row r="103" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="12">
@@ -7406,16 +7511,16 @@
       <c r="C103" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D103" s="14" t="s">
+      <c r="D103" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="15" t="s">
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="I103" s="15"/>
+      <c r="I103" s="14"/>
     </row>
     <row r="104" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="12">
@@ -7425,16 +7530,16 @@
       <c r="C104" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D104" s="14" t="s">
+      <c r="D104" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="15" t="s">
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="I104" s="15"/>
+      <c r="I104" s="14"/>
     </row>
     <row r="105" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="12">
@@ -7444,16 +7549,16 @@
       <c r="C105" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D105" s="14" t="s">
+      <c r="D105" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="15" t="s">
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="I105" s="15"/>
+      <c r="I105" s="14"/>
     </row>
     <row r="106" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="12">
@@ -7463,16 +7568,16 @@
       <c r="C106" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D106" s="14" t="s">
+      <c r="D106" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
-      <c r="H106" s="15" t="s">
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="I106" s="15"/>
+      <c r="I106" s="14"/>
     </row>
     <row r="107" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="12">
@@ -7482,16 +7587,16 @@
       <c r="C107" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D107" s="14" t="s">
+      <c r="D107" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="15" t="s">
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="I107" s="15"/>
+      <c r="I107" s="14"/>
     </row>
     <row r="108" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="12">
@@ -7501,16 +7606,16 @@
       <c r="C108" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D108" s="14" t="s">
+      <c r="D108" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="14"/>
-      <c r="H108" s="15" t="s">
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="I108" s="15"/>
+      <c r="I108" s="14"/>
     </row>
     <row r="109" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="12">
@@ -7520,16 +7625,16 @@
       <c r="C109" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D109" s="14" t="s">
+      <c r="D109" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="14"/>
-      <c r="H109" s="15" t="s">
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="I109" s="15"/>
+      <c r="I109" s="14"/>
     </row>
     <row r="110" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="12">
@@ -7539,16 +7644,16 @@
       <c r="C110" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="D110" s="14" t="s">
+      <c r="D110" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c r="G110" s="14"/>
-      <c r="H110" s="15" t="s">
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="I110" s="15"/>
+      <c r="I110" s="14"/>
     </row>
     <row r="111" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="12">
@@ -7558,16 +7663,16 @@
       <c r="C111" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="D111" s="14" t="s">
+      <c r="D111" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
-      <c r="H111" s="15" t="s">
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="I111" s="15"/>
+      <c r="I111" s="14"/>
     </row>
     <row r="112" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="12">
@@ -7577,16 +7682,16 @@
       <c r="C112" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D112" s="14" t="s">
+      <c r="D112" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="14"/>
-      <c r="H112" s="15" t="s">
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="I112" s="15"/>
+      <c r="I112" s="14"/>
     </row>
     <row r="113" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="12">
@@ -7596,16 +7701,16 @@
       <c r="C113" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="D113" s="14" t="s">
+      <c r="D113" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="14"/>
-      <c r="H113" s="15" t="s">
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="I113" s="15"/>
+      <c r="I113" s="14"/>
     </row>
     <row r="114" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="12">
@@ -7615,16 +7720,16 @@
       <c r="C114" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D114" s="14" t="s">
+      <c r="D114" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c r="G114" s="14"/>
-      <c r="H114" s="15" t="s">
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="I114" s="15"/>
+      <c r="I114" s="14"/>
     </row>
     <row r="115" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="12">
@@ -7634,16 +7739,16 @@
       <c r="C115" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="D115" s="14" t="s">
+      <c r="D115" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="14"/>
-      <c r="H115" s="15" t="s">
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="I115" s="15"/>
+      <c r="I115" s="14"/>
     </row>
     <row r="116" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="12">
@@ -7653,16 +7758,16 @@
       <c r="C116" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D116" s="14" t="s">
+      <c r="D116" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="14"/>
-      <c r="H116" s="15" t="s">
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="I116" s="15"/>
+      <c r="I116" s="14"/>
     </row>
     <row r="117" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="12">
@@ -7672,16 +7777,16 @@
       <c r="C117" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="D117" s="14" t="s">
+      <c r="D117" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="15" t="s">
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="I117" s="15"/>
+      <c r="I117" s="14"/>
     </row>
     <row r="118" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="12">
@@ -7691,16 +7796,16 @@
       <c r="C118" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D118" s="14" t="s">
+      <c r="D118" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="14"/>
-      <c r="H118" s="15" t="s">
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="I118" s="15"/>
+      <c r="I118" s="14"/>
     </row>
     <row r="119" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="12">
@@ -7710,16 +7815,16 @@
       <c r="C119" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D119" s="14" t="s">
+      <c r="D119" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
-      <c r="H119" s="15" t="s">
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="I119" s="15"/>
+      <c r="I119" s="14"/>
     </row>
     <row r="120" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="12">
@@ -7729,16 +7834,16 @@
       <c r="C120" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D120" s="14" t="s">
+      <c r="D120" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
-      <c r="H120" s="15" t="s">
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="I120" s="15"/>
+      <c r="I120" s="14"/>
     </row>
     <row r="121" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="12">
@@ -7748,16 +7853,16 @@
       <c r="C121" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="D121" s="14" t="s">
+      <c r="D121" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
-      <c r="H121" s="15" t="s">
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="I121" s="15"/>
+      <c r="I121" s="14"/>
     </row>
     <row r="122" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="12">
@@ -7767,16 +7872,16 @@
       <c r="C122" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="D122" s="14" t="s">
+      <c r="D122" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="14"/>
-      <c r="H122" s="15" t="s">
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="I122" s="15"/>
+      <c r="I122" s="14"/>
     </row>
     <row r="123" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="12">
@@ -7786,16 +7891,16 @@
       <c r="C123" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D123" s="14" t="s">
+      <c r="D123" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
-      <c r="H123" s="15" t="s">
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="I123" s="15"/>
+      <c r="I123" s="14"/>
     </row>
     <row r="124" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="12">
@@ -7805,16 +7910,16 @@
       <c r="C124" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="D124" s="14" t="s">
+      <c r="D124" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c r="G124" s="14"/>
-      <c r="H124" s="15" t="s">
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="I124" s="15"/>
+      <c r="I124" s="14"/>
     </row>
     <row r="125" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="12">
@@ -7824,16 +7929,16 @@
       <c r="C125" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="D125" s="14" t="s">
+      <c r="D125" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="14"/>
-      <c r="H125" s="15" t="s">
+      <c r="E125" s="13"/>
+      <c r="F125" s="13"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="I125" s="15"/>
+      <c r="I125" s="14"/>
     </row>
     <row r="126" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="12">
@@ -7843,16 +7948,16 @@
       <c r="C126" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="D126" s="14" t="s">
+      <c r="D126" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c r="G126" s="14"/>
-      <c r="H126" s="15" t="s">
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="I126" s="15"/>
+      <c r="I126" s="14"/>
     </row>
     <row r="127" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="12">
@@ -7862,16 +7967,16 @@
       <c r="C127" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D127" s="14" t="s">
+      <c r="D127" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c r="G127" s="14"/>
-      <c r="H127" s="15" t="s">
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="I127" s="15"/>
+      <c r="I127" s="14"/>
     </row>
     <row r="128" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="12">
@@ -7881,16 +7986,16 @@
       <c r="C128" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="D128" s="14" t="s">
+      <c r="D128" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c r="G128" s="14"/>
-      <c r="H128" s="15" t="s">
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="I128" s="15"/>
+      <c r="I128" s="14"/>
     </row>
     <row r="129" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="12">
@@ -7900,16 +8005,16 @@
       <c r="C129" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="D129" s="14" t="s">
+      <c r="D129" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c r="G129" s="14"/>
-      <c r="H129" s="15" t="s">
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="I129" s="15"/>
+      <c r="I129" s="14"/>
     </row>
     <row r="130" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="12">
@@ -7919,16 +8024,16 @@
       <c r="C130" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="D130" s="14" t="s">
+      <c r="D130" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c r="G130" s="14"/>
-      <c r="H130" s="15" t="s">
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="I130" s="15"/>
+      <c r="I130" s="14"/>
     </row>
     <row r="131" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="12">
@@ -7938,16 +8043,16 @@
       <c r="C131" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="D131" s="14" t="s">
+      <c r="D131" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c r="G131" s="14"/>
-      <c r="H131" s="15" t="s">
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="I131" s="15"/>
+      <c r="I131" s="14"/>
     </row>
     <row r="132" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="12">
@@ -7957,16 +8062,16 @@
       <c r="C132" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D132" s="14" t="s">
+      <c r="D132" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c r="G132" s="14"/>
-      <c r="H132" s="15" t="s">
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="I132" s="15"/>
+      <c r="I132" s="14"/>
     </row>
     <row r="133" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="12">
@@ -7976,16 +8081,16 @@
       <c r="C133" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D133" s="14" t="s">
+      <c r="D133" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c r="G133" s="14"/>
-      <c r="H133" s="15" t="s">
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="I133" s="15"/>
+      <c r="I133" s="14"/>
     </row>
     <row r="134" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="12">
@@ -7995,16 +8100,16 @@
       <c r="C134" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D134" s="14" t="s">
+      <c r="D134" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c r="G134" s="14"/>
-      <c r="H134" s="15" t="s">
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="I134" s="15"/>
+      <c r="I134" s="14"/>
     </row>
     <row r="135" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="12">
@@ -8014,16 +8119,16 @@
       <c r="C135" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D135" s="14" t="s">
+      <c r="D135" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c r="G135" s="14"/>
-      <c r="H135" s="15" t="s">
+      <c r="E135" s="13"/>
+      <c r="F135" s="13"/>
+      <c r="G135" s="13"/>
+      <c r="H135" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="I135" s="15"/>
+      <c r="I135" s="14"/>
     </row>
     <row r="136" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="12">
@@ -8033,16 +8138,16 @@
       <c r="C136" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="D136" s="14" t="s">
+      <c r="D136" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c r="G136" s="14"/>
-      <c r="H136" s="15" t="s">
+      <c r="E136" s="13"/>
+      <c r="F136" s="13"/>
+      <c r="G136" s="13"/>
+      <c r="H136" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="I136" s="15"/>
+      <c r="I136" s="14"/>
     </row>
     <row r="137" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="12">
@@ -8052,45 +8157,45 @@
       <c r="C137" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="D137" s="14" t="s">
+      <c r="D137" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c r="G137" s="14"/>
-      <c r="H137" s="15" t="s">
+      <c r="E137" s="13"/>
+      <c r="F137" s="13"/>
+      <c r="G137" s="13"/>
+      <c r="H137" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="I137" s="15"/>
+      <c r="I137" s="14"/>
     </row>
     <row r="138" spans="1:16" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="10" t="s">
+      <c r="A138" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="B138" s="10"/>
-      <c r="C138" s="10"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="10"/>
-      <c r="F138" s="10"/>
-      <c r="G138" s="10"/>
-      <c r="H138" s="10"/>
-      <c r="I138" s="10"/>
-      <c r="J138" s="10"/>
-      <c r="K138" s="10"/>
-      <c r="L138" s="10"/>
-      <c r="M138" s="10"/>
-      <c r="N138" s="10"/>
-      <c r="O138" s="10"/>
-      <c r="P138" s="10"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="11"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="11"/>
+      <c r="L138" s="11"/>
+      <c r="M138" s="11"/>
+      <c r="N138" s="11"/>
+      <c r="O138" s="11"/>
+      <c r="P138" s="11"/>
     </row>
     <row r="139" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="2">
         <v>1</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C139" s="11"/>
+      <c r="C139" s="10"/>
       <c r="D139" s="2">
         <v>69</v>
       </c>
@@ -8119,19 +8224,19 @@
       <c r="M139" s="5">
         <v>6.333416E-2</v>
       </c>
-      <c r="N139" s="15" t="s">
+      <c r="N139" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="O139" s="15"/>
+      <c r="O139" s="14"/>
     </row>
     <row r="140" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="2">
         <v>2</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C140" s="11"/>
+      <c r="C140" s="10"/>
       <c r="D140" s="2">
         <v>89</v>
       </c>
@@ -8160,19 +8265,19 @@
       <c r="M140" s="5">
         <v>6.4329720000000007E-2</v>
       </c>
-      <c r="N140" s="15" t="s">
+      <c r="N140" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="O140" s="15"/>
+      <c r="O140" s="14"/>
     </row>
     <row r="141" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="2">
         <v>3</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="B141" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C141" s="11"/>
+      <c r="C141" s="10"/>
       <c r="D141" s="2">
         <v>95</v>
       </c>
@@ -8201,19 +8306,19 @@
       <c r="M141" s="5">
         <v>6.4317399999999997E-2</v>
       </c>
-      <c r="N141" s="15" t="s">
+      <c r="N141" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="O141" s="15"/>
+      <c r="O141" s="14"/>
     </row>
     <row r="142" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="2">
         <v>4</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B142" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C142" s="11"/>
+      <c r="C142" s="10"/>
       <c r="D142" s="2">
         <v>110</v>
       </c>
@@ -8242,19 +8347,19 @@
       <c r="M142" s="5">
         <v>6.4896049999999997E-2</v>
       </c>
-      <c r="N142" s="15" t="s">
+      <c r="N142" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="O142" s="15"/>
+      <c r="O142" s="14"/>
     </row>
     <row r="143" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="2">
         <v>5</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B143" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C143" s="11"/>
+      <c r="C143" s="10"/>
       <c r="D143" s="2">
         <v>115</v>
       </c>
@@ -8283,19 +8388,19 @@
       <c r="M143" s="5">
         <v>6.4989089999999999E-2</v>
       </c>
-      <c r="N143" s="15" t="s">
+      <c r="N143" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="O143" s="15"/>
+      <c r="O143" s="14"/>
     </row>
     <row r="144" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
         <v>6</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B144" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C144" s="11"/>
+      <c r="C144" s="10"/>
       <c r="D144" s="2">
         <v>151</v>
       </c>
@@ -8324,19 +8429,19 @@
       <c r="M144" s="5">
         <v>6.6181459999999998E-2</v>
       </c>
-      <c r="N144" s="15" t="s">
+      <c r="N144" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="O144" s="15"/>
+      <c r="O144" s="14"/>
     </row>
     <row r="145" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="2">
         <v>7</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C145" s="11"/>
+      <c r="C145" s="10"/>
       <c r="D145" s="2">
         <v>221</v>
       </c>
@@ -8365,19 +8470,19 @@
       <c r="M145" s="5">
         <v>6.7662769999999997E-2</v>
       </c>
-      <c r="N145" s="15" t="s">
+      <c r="N145" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="O145" s="15"/>
+      <c r="O145" s="14"/>
     </row>
     <row r="146" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="2">
         <v>8</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B146" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C146" s="11"/>
+      <c r="C146" s="10"/>
       <c r="D146" s="2">
         <v>226</v>
       </c>
@@ -8406,19 +8511,19 @@
       <c r="M146" s="5">
         <v>6.7280240000000005E-2</v>
       </c>
-      <c r="N146" s="15" t="s">
+      <c r="N146" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="O146" s="15"/>
+      <c r="O146" s="14"/>
     </row>
     <row r="147" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="2">
         <v>9</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C147" s="11"/>
+      <c r="C147" s="10"/>
       <c r="D147" s="2">
         <v>284</v>
       </c>
@@ -8447,19 +8552,19 @@
       <c r="M147" s="5">
         <v>6.9491020000000001E-2</v>
       </c>
-      <c r="N147" s="15" t="s">
+      <c r="N147" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="O147" s="15"/>
+      <c r="O147" s="14"/>
     </row>
     <row r="148" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="2">
         <v>10</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B148" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C148" s="11"/>
+      <c r="C148" s="10"/>
       <c r="D148" s="2">
         <v>286</v>
       </c>
@@ -8486,19 +8591,19 @@
       <c r="M148" s="5">
         <v>6.9108829999999996E-2</v>
       </c>
-      <c r="N148" s="15" t="s">
+      <c r="N148" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="O148" s="15"/>
+      <c r="O148" s="14"/>
     </row>
     <row r="149" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="2">
         <v>11</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C149" s="11"/>
+      <c r="C149" s="10"/>
       <c r="D149" s="2">
         <v>287</v>
       </c>
@@ -8527,19 +8632,19 @@
       <c r="M149" s="5">
         <v>6.9352720000000007E-2</v>
       </c>
-      <c r="N149" s="15" t="s">
+      <c r="N149" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="O149" s="15"/>
+      <c r="O149" s="14"/>
     </row>
     <row r="150" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="2">
         <v>12</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B150" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C150" s="11"/>
+      <c r="C150" s="10"/>
       <c r="D150" s="2">
         <v>292</v>
       </c>
@@ -8568,19 +8673,19 @@
       <c r="M150" s="5">
         <v>6.9745710000000002E-2</v>
       </c>
-      <c r="N150" s="15" t="s">
+      <c r="N150" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="O150" s="15"/>
+      <c r="O150" s="14"/>
     </row>
     <row r="151" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="2">
         <v>13</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B151" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C151" s="11"/>
+      <c r="C151" s="10"/>
       <c r="D151" s="2">
         <v>323</v>
       </c>
@@ -8609,19 +8714,19 @@
       <c r="M151" s="5">
         <v>7.0440500000000003E-2</v>
       </c>
-      <c r="N151" s="15" t="s">
+      <c r="N151" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="O151" s="15"/>
+      <c r="O151" s="14"/>
     </row>
     <row r="152" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="2">
         <v>14</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B152" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C152" s="11"/>
+      <c r="C152" s="10"/>
       <c r="D152" s="2">
         <v>359</v>
       </c>
@@ -8650,19 +8755,19 @@
       <c r="M152" s="5">
         <v>7.1690660000000003E-2</v>
       </c>
-      <c r="N152" s="15" t="s">
+      <c r="N152" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="O152" s="15"/>
+      <c r="O152" s="14"/>
     </row>
     <row r="153" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="2">
         <v>15</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B153" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C153" s="11"/>
+      <c r="C153" s="10"/>
       <c r="D153" s="2">
         <v>385</v>
       </c>
@@ -8691,19 +8796,19 @@
       <c r="M153" s="5">
         <v>7.2083759999999997E-2</v>
       </c>
-      <c r="N153" s="15" t="s">
+      <c r="N153" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="O153" s="15"/>
+      <c r="O153" s="14"/>
     </row>
     <row r="154" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="2">
         <v>16</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B154" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C154" s="11"/>
+      <c r="C154" s="10"/>
       <c r="D154" s="2">
         <v>430</v>
       </c>
@@ -8732,19 +8837,19 @@
       <c r="M154" s="5">
         <v>7.4919319999999998E-2</v>
       </c>
-      <c r="N154" s="15" t="s">
+      <c r="N154" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="O154" s="15"/>
+      <c r="O154" s="14"/>
     </row>
     <row r="155" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="2">
         <v>17</v>
       </c>
-      <c r="B155" s="11" t="s">
+      <c r="B155" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C155" s="11"/>
+      <c r="C155" s="10"/>
       <c r="D155" s="2">
         <v>486</v>
       </c>
@@ -8769,49 +8874,49 @@
       <c r="M155" s="5">
         <v>8.0486409999999994E-2</v>
       </c>
-      <c r="N155" s="15" t="s">
+      <c r="N155" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="O155" s="15"/>
+      <c r="O155" s="14"/>
     </row>
     <row r="156" spans="1:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="10" t="s">
+      <c r="A156" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="B156" s="10"/>
-      <c r="C156" s="10"/>
-      <c r="D156" s="10"/>
-      <c r="E156" s="10"/>
-      <c r="F156" s="10"/>
-      <c r="G156" s="10"/>
-      <c r="H156" s="10"/>
-      <c r="I156" s="10"/>
-      <c r="J156" s="10"/>
-      <c r="K156" s="10"/>
-      <c r="L156" s="10"/>
-      <c r="M156" s="10"/>
-      <c r="N156" s="10"/>
-      <c r="O156" s="10"/>
-      <c r="P156" s="10"/>
+      <c r="B156" s="11"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11"/>
+      <c r="G156" s="11"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="11"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="11"/>
+      <c r="L156" s="11"/>
+      <c r="M156" s="11"/>
+      <c r="N156" s="11"/>
+      <c r="O156" s="11"/>
+      <c r="P156" s="11"/>
     </row>
     <row r="157" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="16" t="s">
+      <c r="A157" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="B157" s="16"/>
+      <c r="B157" s="15"/>
       <c r="C157" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="D157" s="16" t="s">
+      <c r="D157" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="E157" s="16"/>
-      <c r="F157" s="16"/>
-      <c r="G157" s="16"/>
-      <c r="H157" s="16" t="s">
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="I157" s="16"/>
+      <c r="I157" s="15"/>
     </row>
     <row r="158" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="12">
@@ -8821,16 +8926,16 @@
       <c r="C158" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="D158" s="14" t="s">
+      <c r="D158" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E158" s="14"/>
-      <c r="F158" s="14"/>
-      <c r="G158" s="14"/>
-      <c r="H158" s="14" t="s">
+      <c r="E158" s="13"/>
+      <c r="F158" s="13"/>
+      <c r="G158" s="13"/>
+      <c r="H158" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="I158" s="14"/>
+      <c r="I158" s="13"/>
     </row>
     <row r="159" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="12">
@@ -8840,16 +8945,16 @@
       <c r="C159" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="D159" s="14" t="s">
+      <c r="D159" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E159" s="14"/>
-      <c r="F159" s="14"/>
-      <c r="G159" s="14"/>
-      <c r="H159" s="14" t="s">
+      <c r="E159" s="13"/>
+      <c r="F159" s="13"/>
+      <c r="G159" s="13"/>
+      <c r="H159" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="I159" s="14"/>
+      <c r="I159" s="13"/>
     </row>
     <row r="160" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="12">
@@ -8859,16 +8964,16 @@
       <c r="C160" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="D160" s="14" t="s">
+      <c r="D160" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E160" s="14"/>
-      <c r="F160" s="14"/>
-      <c r="G160" s="14"/>
-      <c r="H160" s="14" t="s">
+      <c r="E160" s="13"/>
+      <c r="F160" s="13"/>
+      <c r="G160" s="13"/>
+      <c r="H160" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="I160" s="14"/>
+      <c r="I160" s="13"/>
     </row>
     <row r="161" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="12">
@@ -8878,16 +8983,16 @@
       <c r="C161" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D161" s="14" t="s">
+      <c r="D161" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E161" s="14"/>
-      <c r="F161" s="14"/>
-      <c r="G161" s="14"/>
-      <c r="H161" s="14" t="s">
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
+      <c r="G161" s="13"/>
+      <c r="H161" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="I161" s="14"/>
+      <c r="I161" s="13"/>
     </row>
     <row r="162" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="12">
@@ -8897,16 +9002,16 @@
       <c r="C162" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D162" s="14" t="s">
+      <c r="D162" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E162" s="14"/>
-      <c r="F162" s="14"/>
-      <c r="G162" s="14"/>
-      <c r="H162" s="14" t="s">
+      <c r="E162" s="13"/>
+      <c r="F162" s="13"/>
+      <c r="G162" s="13"/>
+      <c r="H162" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="I162" s="14"/>
+      <c r="I162" s="13"/>
     </row>
     <row r="163" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="12">
@@ -8916,16 +9021,16 @@
       <c r="C163" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D163" s="14" t="s">
+      <c r="D163" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E163" s="14"/>
-      <c r="F163" s="14"/>
-      <c r="G163" s="14"/>
-      <c r="H163" s="14" t="s">
+      <c r="E163" s="13"/>
+      <c r="F163" s="13"/>
+      <c r="G163" s="13"/>
+      <c r="H163" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="I163" s="14"/>
+      <c r="I163" s="13"/>
     </row>
     <row r="164" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="12">
@@ -8935,16 +9040,16 @@
       <c r="C164" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D164" s="14" t="s">
+      <c r="D164" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E164" s="14"/>
-      <c r="F164" s="14"/>
-      <c r="G164" s="14"/>
-      <c r="H164" s="14" t="s">
+      <c r="E164" s="13"/>
+      <c r="F164" s="13"/>
+      <c r="G164" s="13"/>
+      <c r="H164" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="I164" s="14"/>
+      <c r="I164" s="13"/>
     </row>
     <row r="165" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="12">
@@ -8954,16 +9059,16 @@
       <c r="C165" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D165" s="14" t="s">
+      <c r="D165" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E165" s="14"/>
-      <c r="F165" s="14"/>
-      <c r="G165" s="14"/>
-      <c r="H165" s="14" t="s">
+      <c r="E165" s="13"/>
+      <c r="F165" s="13"/>
+      <c r="G165" s="13"/>
+      <c r="H165" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="I165" s="14"/>
+      <c r="I165" s="13"/>
     </row>
     <row r="166" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="12">
@@ -8973,16 +9078,16 @@
       <c r="C166" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="D166" s="14" t="s">
+      <c r="D166" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E166" s="14"/>
-      <c r="F166" s="14"/>
-      <c r="G166" s="14"/>
-      <c r="H166" s="14" t="s">
+      <c r="E166" s="13"/>
+      <c r="F166" s="13"/>
+      <c r="G166" s="13"/>
+      <c r="H166" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="I166" s="14"/>
+      <c r="I166" s="13"/>
     </row>
     <row r="167" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="12">
@@ -8992,16 +9097,16 @@
       <c r="C167" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D167" s="14" t="s">
+      <c r="D167" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E167" s="14"/>
-      <c r="F167" s="14"/>
-      <c r="G167" s="14"/>
-      <c r="H167" s="14" t="s">
+      <c r="E167" s="13"/>
+      <c r="F167" s="13"/>
+      <c r="G167" s="13"/>
+      <c r="H167" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="I167" s="14"/>
+      <c r="I167" s="13"/>
     </row>
     <row r="168" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="12">
@@ -9011,16 +9116,16 @@
       <c r="C168" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="D168" s="14" t="s">
+      <c r="D168" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E168" s="14"/>
-      <c r="F168" s="14"/>
-      <c r="G168" s="14"/>
-      <c r="H168" s="14" t="s">
+      <c r="E168" s="13"/>
+      <c r="F168" s="13"/>
+      <c r="G168" s="13"/>
+      <c r="H168" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="I168" s="14"/>
+      <c r="I168" s="13"/>
     </row>
     <row r="169" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="12">
@@ -9030,16 +9135,16 @@
       <c r="C169" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="D169" s="14" t="s">
+      <c r="D169" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E169" s="14"/>
-      <c r="F169" s="14"/>
-      <c r="G169" s="14"/>
-      <c r="H169" s="14" t="s">
+      <c r="E169" s="13"/>
+      <c r="F169" s="13"/>
+      <c r="G169" s="13"/>
+      <c r="H169" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="I169" s="14"/>
+      <c r="I169" s="13"/>
     </row>
     <row r="170" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="12">
@@ -9049,16 +9154,16 @@
       <c r="C170" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="D170" s="14" t="s">
+      <c r="D170" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E170" s="14"/>
-      <c r="F170" s="14"/>
-      <c r="G170" s="14"/>
-      <c r="H170" s="14" t="s">
+      <c r="E170" s="13"/>
+      <c r="F170" s="13"/>
+      <c r="G170" s="13"/>
+      <c r="H170" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="I170" s="14"/>
+      <c r="I170" s="13"/>
     </row>
     <row r="171" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="12">
@@ -9068,16 +9173,16 @@
       <c r="C171" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="D171" s="14" t="s">
+      <c r="D171" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E171" s="14"/>
-      <c r="F171" s="14"/>
-      <c r="G171" s="14"/>
-      <c r="H171" s="14" t="s">
+      <c r="E171" s="13"/>
+      <c r="F171" s="13"/>
+      <c r="G171" s="13"/>
+      <c r="H171" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="I171" s="14"/>
+      <c r="I171" s="13"/>
     </row>
     <row r="172" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="12">
@@ -9087,16 +9192,16 @@
       <c r="C172" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="D172" s="14" t="s">
+      <c r="D172" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E172" s="14"/>
-      <c r="F172" s="14"/>
-      <c r="G172" s="14"/>
-      <c r="H172" s="14" t="s">
+      <c r="E172" s="13"/>
+      <c r="F172" s="13"/>
+      <c r="G172" s="13"/>
+      <c r="H172" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="I172" s="14"/>
+      <c r="I172" s="13"/>
     </row>
     <row r="173" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="12">
@@ -9106,16 +9211,16 @@
       <c r="C173" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="D173" s="14" t="s">
+      <c r="D173" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E173" s="14"/>
-      <c r="F173" s="14"/>
-      <c r="G173" s="14"/>
-      <c r="H173" s="14" t="s">
+      <c r="E173" s="13"/>
+      <c r="F173" s="13"/>
+      <c r="G173" s="13"/>
+      <c r="H173" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="I173" s="14"/>
+      <c r="I173" s="13"/>
     </row>
     <row r="174" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="12">
@@ -9125,16 +9230,16 @@
       <c r="C174" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="D174" s="14" t="s">
+      <c r="D174" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E174" s="14"/>
-      <c r="F174" s="14"/>
-      <c r="G174" s="14"/>
-      <c r="H174" s="14" t="s">
+      <c r="E174" s="13"/>
+      <c r="F174" s="13"/>
+      <c r="G174" s="13"/>
+      <c r="H174" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="I174" s="14"/>
+      <c r="I174" s="13"/>
     </row>
     <row r="175" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="12">
@@ -9144,16 +9249,16 @@
       <c r="C175" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="D175" s="14" t="s">
+      <c r="D175" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E175" s="14"/>
-      <c r="F175" s="14"/>
-      <c r="G175" s="14"/>
-      <c r="H175" s="14" t="s">
+      <c r="E175" s="13"/>
+      <c r="F175" s="13"/>
+      <c r="G175" s="13"/>
+      <c r="H175" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="I175" s="14"/>
+      <c r="I175" s="13"/>
     </row>
     <row r="176" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="12">
@@ -9163,16 +9268,16 @@
       <c r="C176" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="D176" s="14" t="s">
+      <c r="D176" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E176" s="14"/>
-      <c r="F176" s="14"/>
-      <c r="G176" s="14"/>
-      <c r="H176" s="14" t="s">
+      <c r="E176" s="13"/>
+      <c r="F176" s="13"/>
+      <c r="G176" s="13"/>
+      <c r="H176" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="I176" s="14"/>
+      <c r="I176" s="13"/>
     </row>
     <row r="177" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="12">
@@ -9182,16 +9287,16 @@
       <c r="C177" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="D177" s="14" t="s">
+      <c r="D177" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E177" s="14"/>
-      <c r="F177" s="14"/>
-      <c r="G177" s="14"/>
-      <c r="H177" s="14" t="s">
+      <c r="E177" s="13"/>
+      <c r="F177" s="13"/>
+      <c r="G177" s="13"/>
+      <c r="H177" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="I177" s="14"/>
+      <c r="I177" s="13"/>
     </row>
     <row r="178" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="12">
@@ -9201,16 +9306,16 @@
       <c r="C178" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="D178" s="14" t="s">
+      <c r="D178" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E178" s="14"/>
-      <c r="F178" s="14"/>
-      <c r="G178" s="14"/>
-      <c r="H178" s="14" t="s">
+      <c r="E178" s="13"/>
+      <c r="F178" s="13"/>
+      <c r="G178" s="13"/>
+      <c r="H178" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="I178" s="14"/>
+      <c r="I178" s="13"/>
     </row>
     <row r="179" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="12">
@@ -9220,16 +9325,16 @@
       <c r="C179" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="D179" s="14" t="s">
+      <c r="D179" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E179" s="14"/>
-      <c r="F179" s="14"/>
-      <c r="G179" s="14"/>
-      <c r="H179" s="14" t="s">
+      <c r="E179" s="13"/>
+      <c r="F179" s="13"/>
+      <c r="G179" s="13"/>
+      <c r="H179" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="I179" s="14"/>
+      <c r="I179" s="13"/>
     </row>
     <row r="180" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="12">
@@ -9239,16 +9344,16 @@
       <c r="C180" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D180" s="14" t="s">
+      <c r="D180" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E180" s="14"/>
-      <c r="F180" s="14"/>
-      <c r="G180" s="14"/>
-      <c r="H180" s="15" t="s">
+      <c r="E180" s="13"/>
+      <c r="F180" s="13"/>
+      <c r="G180" s="13"/>
+      <c r="H180" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="I180" s="15"/>
+      <c r="I180" s="14"/>
     </row>
     <row r="181" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="12">
@@ -9258,16 +9363,16 @@
       <c r="C181" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="D181" s="14" t="s">
+      <c r="D181" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E181" s="14"/>
-      <c r="F181" s="14"/>
-      <c r="G181" s="14"/>
-      <c r="H181" s="15" t="s">
+      <c r="E181" s="13"/>
+      <c r="F181" s="13"/>
+      <c r="G181" s="13"/>
+      <c r="H181" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="I181" s="15"/>
+      <c r="I181" s="14"/>
     </row>
     <row r="182" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="12">
@@ -9277,16 +9382,16 @@
       <c r="C182" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="D182" s="14" t="s">
+      <c r="D182" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E182" s="14"/>
-      <c r="F182" s="14"/>
-      <c r="G182" s="14"/>
-      <c r="H182" s="15" t="s">
+      <c r="E182" s="13"/>
+      <c r="F182" s="13"/>
+      <c r="G182" s="13"/>
+      <c r="H182" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="I182" s="15"/>
+      <c r="I182" s="14"/>
     </row>
     <row r="183" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="12">
@@ -9296,16 +9401,16 @@
       <c r="C183" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="D183" s="14" t="s">
+      <c r="D183" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="E183" s="14"/>
-      <c r="F183" s="14"/>
-      <c r="G183" s="14"/>
-      <c r="H183" s="15" t="s">
+      <c r="E183" s="13"/>
+      <c r="F183" s="13"/>
+      <c r="G183" s="13"/>
+      <c r="H183" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="I183" s="15"/>
+      <c r="I183" s="14"/>
     </row>
     <row r="184" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="12">
@@ -9315,16 +9420,16 @@
       <c r="C184" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D184" s="14" t="s">
+      <c r="D184" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E184" s="14"/>
-      <c r="F184" s="14"/>
-      <c r="G184" s="14"/>
-      <c r="H184" s="15" t="s">
+      <c r="E184" s="13"/>
+      <c r="F184" s="13"/>
+      <c r="G184" s="13"/>
+      <c r="H184" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="I184" s="15"/>
+      <c r="I184" s="14"/>
     </row>
     <row r="185" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="12">
@@ -9334,16 +9439,16 @@
       <c r="C185" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D185" s="14" t="s">
+      <c r="D185" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E185" s="14"/>
-      <c r="F185" s="14"/>
-      <c r="G185" s="14"/>
-      <c r="H185" s="15" t="s">
+      <c r="E185" s="13"/>
+      <c r="F185" s="13"/>
+      <c r="G185" s="13"/>
+      <c r="H185" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="I185" s="15"/>
+      <c r="I185" s="14"/>
     </row>
     <row r="186" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="12">
@@ -9353,16 +9458,16 @@
       <c r="C186" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="D186" s="14" t="s">
+      <c r="D186" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E186" s="14"/>
-      <c r="F186" s="14"/>
-      <c r="G186" s="14"/>
-      <c r="H186" s="15" t="s">
+      <c r="E186" s="13"/>
+      <c r="F186" s="13"/>
+      <c r="G186" s="13"/>
+      <c r="H186" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="I186" s="15"/>
+      <c r="I186" s="14"/>
     </row>
     <row r="187" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="12">
@@ -9372,16 +9477,16 @@
       <c r="C187" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="D187" s="14" t="s">
+      <c r="D187" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E187" s="14"/>
-      <c r="F187" s="14"/>
-      <c r="G187" s="14"/>
-      <c r="H187" s="15" t="s">
+      <c r="E187" s="13"/>
+      <c r="F187" s="13"/>
+      <c r="G187" s="13"/>
+      <c r="H187" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="I187" s="15"/>
+      <c r="I187" s="14"/>
     </row>
     <row r="188" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="12">
@@ -9391,16 +9496,16 @@
       <c r="C188" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="D188" s="14" t="s">
+      <c r="D188" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E188" s="14"/>
-      <c r="F188" s="14"/>
-      <c r="G188" s="14"/>
-      <c r="H188" s="15" t="s">
+      <c r="E188" s="13"/>
+      <c r="F188" s="13"/>
+      <c r="G188" s="13"/>
+      <c r="H188" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="I188" s="15"/>
+      <c r="I188" s="14"/>
     </row>
     <row r="189" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="12">
@@ -9410,16 +9515,16 @@
       <c r="C189" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D189" s="14" t="s">
+      <c r="D189" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E189" s="14"/>
-      <c r="F189" s="14"/>
-      <c r="G189" s="14"/>
-      <c r="H189" s="15" t="s">
+      <c r="E189" s="13"/>
+      <c r="F189" s="13"/>
+      <c r="G189" s="13"/>
+      <c r="H189" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="I189" s="15"/>
+      <c r="I189" s="14"/>
     </row>
     <row r="190" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="12">
@@ -9429,16 +9534,16 @@
       <c r="C190" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D190" s="14" t="s">
+      <c r="D190" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E190" s="14"/>
-      <c r="F190" s="14"/>
-      <c r="G190" s="14"/>
-      <c r="H190" s="15" t="s">
+      <c r="E190" s="13"/>
+      <c r="F190" s="13"/>
+      <c r="G190" s="13"/>
+      <c r="H190" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="I190" s="15"/>
+      <c r="I190" s="14"/>
     </row>
     <row r="191" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="12">
@@ -9448,16 +9553,16 @@
       <c r="C191" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="D191" s="14" t="s">
+      <c r="D191" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E191" s="14"/>
-      <c r="F191" s="14"/>
-      <c r="G191" s="14"/>
-      <c r="H191" s="15" t="s">
+      <c r="E191" s="13"/>
+      <c r="F191" s="13"/>
+      <c r="G191" s="13"/>
+      <c r="H191" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="I191" s="15"/>
+      <c r="I191" s="14"/>
     </row>
     <row r="192" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="12">
@@ -9467,16 +9572,16 @@
       <c r="C192" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="D192" s="14" t="s">
+      <c r="D192" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E192" s="14"/>
-      <c r="F192" s="14"/>
-      <c r="G192" s="14"/>
-      <c r="H192" s="15" t="s">
+      <c r="E192" s="13"/>
+      <c r="F192" s="13"/>
+      <c r="G192" s="13"/>
+      <c r="H192" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="I192" s="15"/>
+      <c r="I192" s="14"/>
     </row>
     <row r="193" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="12">
@@ -9486,16 +9591,16 @@
       <c r="C193" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="D193" s="14" t="s">
+      <c r="D193" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E193" s="14"/>
-      <c r="F193" s="14"/>
-      <c r="G193" s="14"/>
-      <c r="H193" s="15" t="s">
+      <c r="E193" s="13"/>
+      <c r="F193" s="13"/>
+      <c r="G193" s="13"/>
+      <c r="H193" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="I193" s="15"/>
+      <c r="I193" s="14"/>
     </row>
     <row r="194" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="12">
@@ -9505,16 +9610,16 @@
       <c r="C194" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="D194" s="14" t="s">
+      <c r="D194" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E194" s="14"/>
-      <c r="F194" s="14"/>
-      <c r="G194" s="14"/>
-      <c r="H194" s="15" t="s">
+      <c r="E194" s="13"/>
+      <c r="F194" s="13"/>
+      <c r="G194" s="13"/>
+      <c r="H194" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="I194" s="15"/>
+      <c r="I194" s="14"/>
     </row>
     <row r="195" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="12">
@@ -9524,16 +9629,16 @@
       <c r="C195" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="D195" s="14" t="s">
+      <c r="D195" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E195" s="14"/>
-      <c r="F195" s="14"/>
-      <c r="G195" s="14"/>
-      <c r="H195" s="15" t="s">
+      <c r="E195" s="13"/>
+      <c r="F195" s="13"/>
+      <c r="G195" s="13"/>
+      <c r="H195" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="I195" s="15"/>
+      <c r="I195" s="14"/>
     </row>
     <row r="196" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="12">
@@ -9543,16 +9648,16 @@
       <c r="C196" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="D196" s="14" t="s">
+      <c r="D196" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E196" s="14"/>
-      <c r="F196" s="14"/>
-      <c r="G196" s="14"/>
-      <c r="H196" s="15" t="s">
+      <c r="E196" s="13"/>
+      <c r="F196" s="13"/>
+      <c r="G196" s="13"/>
+      <c r="H196" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="I196" s="15"/>
+      <c r="I196" s="14"/>
     </row>
     <row r="197" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="12">
@@ -9562,16 +9667,16 @@
       <c r="C197" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="D197" s="14" t="s">
+      <c r="D197" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E197" s="14"/>
-      <c r="F197" s="14"/>
-      <c r="G197" s="14"/>
-      <c r="H197" s="15" t="s">
+      <c r="E197" s="13"/>
+      <c r="F197" s="13"/>
+      <c r="G197" s="13"/>
+      <c r="H197" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="I197" s="15"/>
+      <c r="I197" s="14"/>
     </row>
     <row r="198" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="12">
@@ -9581,16 +9686,16 @@
       <c r="C198" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="D198" s="14" t="s">
+      <c r="D198" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E198" s="14"/>
-      <c r="F198" s="14"/>
-      <c r="G198" s="14"/>
-      <c r="H198" s="15" t="s">
+      <c r="E198" s="13"/>
+      <c r="F198" s="13"/>
+      <c r="G198" s="13"/>
+      <c r="H198" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="I198" s="15"/>
+      <c r="I198" s="14"/>
     </row>
     <row r="199" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="12">
@@ -9600,16 +9705,16 @@
       <c r="C199" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="D199" s="14" t="s">
+      <c r="D199" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E199" s="14"/>
-      <c r="F199" s="14"/>
-      <c r="G199" s="14"/>
-      <c r="H199" s="15" t="s">
+      <c r="E199" s="13"/>
+      <c r="F199" s="13"/>
+      <c r="G199" s="13"/>
+      <c r="H199" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="I199" s="15"/>
+      <c r="I199" s="14"/>
     </row>
     <row r="200" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="12">
@@ -9619,16 +9724,16 @@
       <c r="C200" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="D200" s="14" t="s">
+      <c r="D200" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E200" s="14"/>
-      <c r="F200" s="14"/>
-      <c r="G200" s="14"/>
-      <c r="H200" s="15" t="s">
+      <c r="E200" s="13"/>
+      <c r="F200" s="13"/>
+      <c r="G200" s="13"/>
+      <c r="H200" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="I200" s="15"/>
+      <c r="I200" s="14"/>
     </row>
     <row r="201" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="12">
@@ -9638,16 +9743,16 @@
       <c r="C201" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="D201" s="14" t="s">
+      <c r="D201" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E201" s="14"/>
-      <c r="F201" s="14"/>
-      <c r="G201" s="14"/>
-      <c r="H201" s="15" t="s">
+      <c r="E201" s="13"/>
+      <c r="F201" s="13"/>
+      <c r="G201" s="13"/>
+      <c r="H201" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="I201" s="15"/>
+      <c r="I201" s="14"/>
     </row>
     <row r="202" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="12">
@@ -9657,16 +9762,16 @@
       <c r="C202" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="D202" s="14" t="s">
+      <c r="D202" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E202" s="14"/>
-      <c r="F202" s="14"/>
-      <c r="G202" s="14"/>
-      <c r="H202" s="15" t="s">
+      <c r="E202" s="13"/>
+      <c r="F202" s="13"/>
+      <c r="G202" s="13"/>
+      <c r="H202" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="I202" s="15"/>
+      <c r="I202" s="14"/>
     </row>
     <row r="203" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="12">
@@ -9676,16 +9781,16 @@
       <c r="C203" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="D203" s="14" t="s">
+      <c r="D203" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E203" s="14"/>
-      <c r="F203" s="14"/>
-      <c r="G203" s="14"/>
-      <c r="H203" s="15" t="s">
+      <c r="E203" s="13"/>
+      <c r="F203" s="13"/>
+      <c r="G203" s="13"/>
+      <c r="H203" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="I203" s="15"/>
+      <c r="I203" s="14"/>
     </row>
     <row r="204" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="12">
@@ -9695,16 +9800,16 @@
       <c r="C204" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="D204" s="14" t="s">
+      <c r="D204" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E204" s="14"/>
-      <c r="F204" s="14"/>
-      <c r="G204" s="14"/>
-      <c r="H204" s="15" t="s">
+      <c r="E204" s="13"/>
+      <c r="F204" s="13"/>
+      <c r="G204" s="13"/>
+      <c r="H204" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="I204" s="15"/>
+      <c r="I204" s="14"/>
     </row>
     <row r="205" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="12">
@@ -9714,16 +9819,16 @@
       <c r="C205" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="D205" s="14" t="s">
+      <c r="D205" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="E205" s="14"/>
-      <c r="F205" s="14"/>
-      <c r="G205" s="14"/>
-      <c r="H205" s="15" t="s">
+      <c r="E205" s="13"/>
+      <c r="F205" s="13"/>
+      <c r="G205" s="13"/>
+      <c r="H205" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="I205" s="15"/>
+      <c r="I205" s="14"/>
     </row>
     <row r="206" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="12">
@@ -9733,16 +9838,16 @@
       <c r="C206" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="D206" s="14" t="s">
+      <c r="D206" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E206" s="14"/>
-      <c r="F206" s="14"/>
-      <c r="G206" s="14"/>
-      <c r="H206" s="15" t="s">
+      <c r="E206" s="13"/>
+      <c r="F206" s="13"/>
+      <c r="G206" s="13"/>
+      <c r="H206" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="I206" s="15"/>
+      <c r="I206" s="14"/>
     </row>
     <row r="207" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="12">
@@ -9752,16 +9857,16 @@
       <c r="C207" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="D207" s="14" t="s">
+      <c r="D207" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E207" s="14"/>
-      <c r="F207" s="14"/>
-      <c r="G207" s="14"/>
-      <c r="H207" s="15" t="s">
+      <c r="E207" s="13"/>
+      <c r="F207" s="13"/>
+      <c r="G207" s="13"/>
+      <c r="H207" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="I207" s="15"/>
+      <c r="I207" s="14"/>
     </row>
     <row r="208" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="12">
@@ -9771,16 +9876,16 @@
       <c r="C208" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="D208" s="14" t="s">
+      <c r="D208" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E208" s="14"/>
-      <c r="F208" s="14"/>
-      <c r="G208" s="14"/>
-      <c r="H208" s="15" t="s">
+      <c r="E208" s="13"/>
+      <c r="F208" s="13"/>
+      <c r="G208" s="13"/>
+      <c r="H208" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="I208" s="15"/>
+      <c r="I208" s="14"/>
     </row>
     <row r="209" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="12">
@@ -9790,16 +9895,16 @@
       <c r="C209" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="D209" s="14" t="s">
+      <c r="D209" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="E209" s="14"/>
-      <c r="F209" s="14"/>
-      <c r="G209" s="14"/>
-      <c r="H209" s="15" t="s">
+      <c r="E209" s="13"/>
+      <c r="F209" s="13"/>
+      <c r="G209" s="13"/>
+      <c r="H209" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="I209" s="15"/>
+      <c r="I209" s="14"/>
     </row>
     <row r="210" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="12">
@@ -9809,16 +9914,16 @@
       <c r="C210" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="D210" s="14" t="s">
+      <c r="D210" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E210" s="14"/>
-      <c r="F210" s="14"/>
-      <c r="G210" s="14"/>
-      <c r="H210" s="15" t="s">
+      <c r="E210" s="13"/>
+      <c r="F210" s="13"/>
+      <c r="G210" s="13"/>
+      <c r="H210" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="I210" s="15"/>
+      <c r="I210" s="14"/>
     </row>
     <row r="211" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="12">
@@ -9828,16 +9933,16 @@
       <c r="C211" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="D211" s="14" t="s">
+      <c r="D211" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E211" s="14"/>
-      <c r="F211" s="14"/>
-      <c r="G211" s="14"/>
-      <c r="H211" s="15" t="s">
+      <c r="E211" s="13"/>
+      <c r="F211" s="13"/>
+      <c r="G211" s="13"/>
+      <c r="H211" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="I211" s="15"/>
+      <c r="I211" s="14"/>
     </row>
     <row r="212" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="12">
@@ -9847,16 +9952,16 @@
       <c r="C212" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="D212" s="14" t="s">
+      <c r="D212" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E212" s="14"/>
-      <c r="F212" s="14"/>
-      <c r="G212" s="14"/>
-      <c r="H212" s="15" t="s">
+      <c r="E212" s="13"/>
+      <c r="F212" s="13"/>
+      <c r="G212" s="13"/>
+      <c r="H212" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="I212" s="15"/>
+      <c r="I212" s="14"/>
     </row>
     <row r="213" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="12">
@@ -9866,16 +9971,16 @@
       <c r="C213" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="D213" s="14" t="s">
+      <c r="D213" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E213" s="14"/>
-      <c r="F213" s="14"/>
-      <c r="G213" s="14"/>
-      <c r="H213" s="15" t="s">
+      <c r="E213" s="13"/>
+      <c r="F213" s="13"/>
+      <c r="G213" s="13"/>
+      <c r="H213" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="I213" s="15"/>
+      <c r="I213" s="14"/>
     </row>
     <row r="214" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="12">
@@ -9885,16 +9990,16 @@
       <c r="C214" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="D214" s="14" t="s">
+      <c r="D214" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E214" s="14"/>
-      <c r="F214" s="14"/>
-      <c r="G214" s="14"/>
-      <c r="H214" s="15" t="s">
+      <c r="E214" s="13"/>
+      <c r="F214" s="13"/>
+      <c r="G214" s="13"/>
+      <c r="H214" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="I214" s="15"/>
+      <c r="I214" s="14"/>
     </row>
     <row r="215" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="12">
@@ -9904,16 +10009,16 @@
       <c r="C215" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="D215" s="14" t="s">
+      <c r="D215" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E215" s="14"/>
-      <c r="F215" s="14"/>
-      <c r="G215" s="14"/>
-      <c r="H215" s="15" t="s">
+      <c r="E215" s="13"/>
+      <c r="F215" s="13"/>
+      <c r="G215" s="13"/>
+      <c r="H215" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="I215" s="15"/>
+      <c r="I215" s="14"/>
     </row>
     <row r="216" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="12">
@@ -9923,16 +10028,16 @@
       <c r="C216" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="D216" s="14" t="s">
+      <c r="D216" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E216" s="14"/>
-      <c r="F216" s="14"/>
-      <c r="G216" s="14"/>
-      <c r="H216" s="15" t="s">
+      <c r="E216" s="13"/>
+      <c r="F216" s="13"/>
+      <c r="G216" s="13"/>
+      <c r="H216" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="I216" s="15"/>
+      <c r="I216" s="14"/>
     </row>
     <row r="217" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="12">
@@ -9942,16 +10047,16 @@
       <c r="C217" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="D217" s="14" t="s">
+      <c r="D217" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E217" s="14"/>
-      <c r="F217" s="14"/>
-      <c r="G217" s="14"/>
-      <c r="H217" s="15" t="s">
+      <c r="E217" s="13"/>
+      <c r="F217" s="13"/>
+      <c r="G217" s="13"/>
+      <c r="H217" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="I217" s="15"/>
+      <c r="I217" s="14"/>
     </row>
     <row r="218" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="12">
@@ -9961,16 +10066,16 @@
       <c r="C218" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="D218" s="14" t="s">
+      <c r="D218" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E218" s="14"/>
-      <c r="F218" s="14"/>
-      <c r="G218" s="14"/>
-      <c r="H218" s="15" t="s">
+      <c r="E218" s="13"/>
+      <c r="F218" s="13"/>
+      <c r="G218" s="13"/>
+      <c r="H218" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="I218" s="15"/>
+      <c r="I218" s="14"/>
     </row>
     <row r="219" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="12">
@@ -9980,16 +10085,16 @@
       <c r="C219" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="D219" s="14" t="s">
+      <c r="D219" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E219" s="14"/>
-      <c r="F219" s="14"/>
-      <c r="G219" s="14"/>
-      <c r="H219" s="15" t="s">
+      <c r="E219" s="13"/>
+      <c r="F219" s="13"/>
+      <c r="G219" s="13"/>
+      <c r="H219" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="I219" s="15"/>
+      <c r="I219" s="14"/>
     </row>
     <row r="220" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="12">
@@ -9999,16 +10104,16 @@
       <c r="C220" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="D220" s="14" t="s">
+      <c r="D220" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E220" s="14"/>
-      <c r="F220" s="14"/>
-      <c r="G220" s="14"/>
-      <c r="H220" s="15" t="s">
+      <c r="E220" s="13"/>
+      <c r="F220" s="13"/>
+      <c r="G220" s="13"/>
+      <c r="H220" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="I220" s="15"/>
+      <c r="I220" s="14"/>
     </row>
     <row r="221" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="12">
@@ -10018,16 +10123,16 @@
       <c r="C221" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="D221" s="14" t="s">
+      <c r="D221" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E221" s="14"/>
-      <c r="F221" s="14"/>
-      <c r="G221" s="14"/>
-      <c r="H221" s="15" t="s">
+      <c r="E221" s="13"/>
+      <c r="F221" s="13"/>
+      <c r="G221" s="13"/>
+      <c r="H221" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="I221" s="15"/>
+      <c r="I221" s="14"/>
     </row>
     <row r="222" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="12">
@@ -10037,16 +10142,16 @@
       <c r="C222" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="D222" s="14" t="s">
+      <c r="D222" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E222" s="14"/>
-      <c r="F222" s="14"/>
-      <c r="G222" s="14"/>
-      <c r="H222" s="15" t="s">
+      <c r="E222" s="13"/>
+      <c r="F222" s="13"/>
+      <c r="G222" s="13"/>
+      <c r="H222" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="I222" s="15"/>
+      <c r="I222" s="14"/>
     </row>
     <row r="223" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="12">
@@ -10056,16 +10161,16 @@
       <c r="C223" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="D223" s="14" t="s">
+      <c r="D223" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E223" s="14"/>
-      <c r="F223" s="14"/>
-      <c r="G223" s="14"/>
-      <c r="H223" s="15" t="s">
+      <c r="E223" s="13"/>
+      <c r="F223" s="13"/>
+      <c r="G223" s="13"/>
+      <c r="H223" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="I223" s="15"/>
+      <c r="I223" s="14"/>
     </row>
     <row r="224" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="12">
@@ -10075,18 +10180,18 @@
       <c r="C224" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="D224" s="14" t="s">
+      <c r="D224" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E224" s="14"/>
-      <c r="F224" s="14"/>
-      <c r="G224" s="14"/>
-      <c r="H224" s="15" t="s">
+      <c r="E224" s="13"/>
+      <c r="F224" s="13"/>
+      <c r="G224" s="13"/>
+      <c r="H224" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="I224" s="15"/>
-    </row>
-    <row r="225" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I224" s="14"/>
+    </row>
+    <row r="225" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="12">
         <v>68</v>
       </c>
@@ -10094,18 +10199,18 @@
       <c r="C225" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="D225" s="14" t="s">
+      <c r="D225" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E225" s="14"/>
-      <c r="F225" s="14"/>
-      <c r="G225" s="14"/>
-      <c r="H225" s="15" t="s">
+      <c r="E225" s="13"/>
+      <c r="F225" s="13"/>
+      <c r="G225" s="13"/>
+      <c r="H225" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="I225" s="15"/>
-    </row>
-    <row r="226" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I225" s="14"/>
+    </row>
+    <row r="226" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="12">
         <v>69</v>
       </c>
@@ -10113,18 +10218,18 @@
       <c r="C226" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="D226" s="14" t="s">
+      <c r="D226" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E226" s="14"/>
-      <c r="F226" s="14"/>
-      <c r="G226" s="14"/>
-      <c r="H226" s="15" t="s">
+      <c r="E226" s="13"/>
+      <c r="F226" s="13"/>
+      <c r="G226" s="13"/>
+      <c r="H226" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="I226" s="15"/>
-    </row>
-    <row r="227" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I226" s="14"/>
+    </row>
+    <row r="227" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="12">
         <v>70</v>
       </c>
@@ -10132,18 +10237,18 @@
       <c r="C227" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="D227" s="14" t="s">
+      <c r="D227" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E227" s="14"/>
-      <c r="F227" s="14"/>
-      <c r="G227" s="14"/>
-      <c r="H227" s="15" t="s">
+      <c r="E227" s="13"/>
+      <c r="F227" s="13"/>
+      <c r="G227" s="13"/>
+      <c r="H227" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="I227" s="15"/>
-    </row>
-    <row r="228" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I227" s="14"/>
+    </row>
+    <row r="228" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="12">
         <v>71</v>
       </c>
@@ -10151,18 +10256,18 @@
       <c r="C228" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="D228" s="14" t="s">
+      <c r="D228" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E228" s="14"/>
-      <c r="F228" s="14"/>
-      <c r="G228" s="14"/>
-      <c r="H228" s="15" t="s">
+      <c r="E228" s="13"/>
+      <c r="F228" s="13"/>
+      <c r="G228" s="13"/>
+      <c r="H228" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="I228" s="15"/>
-    </row>
-    <row r="229" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I228" s="14"/>
+    </row>
+    <row r="229" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="12">
         <v>72</v>
       </c>
@@ -10170,274 +10275,944 @@
       <c r="C229" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="D229" s="14" t="s">
+      <c r="D229" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E229" s="14"/>
-      <c r="F229" s="14"/>
-      <c r="G229" s="14"/>
-      <c r="H229" s="15" t="s">
+      <c r="E229" s="13"/>
+      <c r="F229" s="13"/>
+      <c r="G229" s="13"/>
+      <c r="H229" s="14" t="s">
         <v>443</v>
       </c>
-      <c r="I229" s="15"/>
-    </row>
-    <row r="230" spans="1:16" ht="409.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A230" s="11" t="s">
+      <c r="I229" s="14"/>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A230" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="B230" s="10"/>
-      <c r="C230" s="10"/>
-      <c r="D230" s="10"/>
-      <c r="E230" s="10"/>
-      <c r="F230" s="10"/>
-      <c r="G230" s="10"/>
-      <c r="H230" s="10"/>
-      <c r="I230" s="10"/>
-      <c r="J230" s="10"/>
-      <c r="K230" s="10"/>
-      <c r="L230" s="10"/>
-      <c r="M230" s="10"/>
-      <c r="N230" s="10"/>
-      <c r="O230" s="10"/>
-      <c r="P230" s="10"/>
-    </row>
-    <row r="231" spans="1:16" ht="246.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A231" s="10"/>
-      <c r="B231" s="10"/>
-      <c r="C231" s="10"/>
-      <c r="D231" s="10"/>
-      <c r="E231" s="10"/>
-      <c r="F231" s="10"/>
-      <c r="G231" s="10"/>
-      <c r="H231" s="10"/>
-      <c r="I231" s="10"/>
-      <c r="J231" s="10"/>
-      <c r="K231" s="10"/>
-      <c r="L231" s="10"/>
-      <c r="M231" s="10"/>
-      <c r="N231" s="10"/>
-      <c r="O231" s="10"/>
-      <c r="P231" s="10"/>
+      <c r="B230" s="17"/>
+      <c r="C230" s="17"/>
+      <c r="D230" s="17"/>
+      <c r="E230" s="17"/>
+      <c r="F230" s="17"/>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A231" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="B231" s="17"/>
+      <c r="C231" s="17"/>
+      <c r="D231" s="17"/>
+      <c r="E231" s="17"/>
+      <c r="F231" s="17"/>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A232" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="B232" s="17"/>
+      <c r="C232" s="17"/>
+      <c r="D232" s="17"/>
+      <c r="E232" s="17"/>
+      <c r="F232" s="17"/>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A233" s="17" t="s">
+        <v>447</v>
+      </c>
+      <c r="B233" s="17"/>
+      <c r="C233" s="17"/>
+      <c r="D233" s="17"/>
+      <c r="E233" s="17"/>
+      <c r="F233" s="17"/>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A234" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="B234" s="17"/>
+      <c r="C234" s="17"/>
+      <c r="D234" s="17"/>
+      <c r="E234" s="17"/>
+      <c r="F234" s="17"/>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A235" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="B235" s="17"/>
+      <c r="C235" s="17"/>
+      <c r="D235" s="17"/>
+      <c r="E235" s="17"/>
+      <c r="F235" s="17"/>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A236" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="B236" s="17"/>
+      <c r="C236" s="17"/>
+      <c r="D236" s="17"/>
+      <c r="E236" s="17"/>
+      <c r="F236" s="17"/>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A237" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="B237" s="17"/>
+      <c r="C237" s="17"/>
+      <c r="D237" s="17"/>
+      <c r="E237" s="17"/>
+      <c r="F237" s="17"/>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A238" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="B238" s="17"/>
+      <c r="C238" s="17"/>
+      <c r="D238" s="17"/>
+      <c r="E238" s="17"/>
+      <c r="F238" s="17"/>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A239" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="B239" s="17"/>
+      <c r="C239" s="17"/>
+      <c r="D239" s="17"/>
+      <c r="E239" s="17"/>
+      <c r="F239" s="17"/>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A240" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="B240" s="17"/>
+      <c r="C240" s="17"/>
+      <c r="D240" s="17"/>
+      <c r="E240" s="17"/>
+      <c r="F240" s="17"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A241" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="B241" s="17"/>
+      <c r="C241" s="17"/>
+      <c r="D241" s="17"/>
+      <c r="E241" s="17"/>
+      <c r="F241" s="17"/>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A242" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="B242" s="17"/>
+      <c r="C242" s="17"/>
+      <c r="D242" s="17"/>
+      <c r="E242" s="17"/>
+      <c r="F242" s="17"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A243" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="B243" s="17"/>
+      <c r="C243" s="17"/>
+      <c r="D243" s="17"/>
+      <c r="E243" s="17"/>
+      <c r="F243" s="17"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A244" s="17" t="s">
+        <v>458</v>
+      </c>
+      <c r="B244" s="17"/>
+      <c r="C244" s="17"/>
+      <c r="D244" s="17"/>
+      <c r="E244" s="17"/>
+      <c r="F244" s="17"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A245" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="B245" s="17"/>
+      <c r="C245" s="17"/>
+      <c r="D245" s="17"/>
+      <c r="E245" s="17"/>
+      <c r="F245" s="17"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A246" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="B246" s="17"/>
+      <c r="C246" s="17"/>
+      <c r="D246" s="17"/>
+      <c r="E246" s="17"/>
+      <c r="F246" s="17"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A247" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="B247" s="17"/>
+      <c r="C247" s="17"/>
+      <c r="D247" s="17"/>
+      <c r="E247" s="17"/>
+      <c r="F247" s="17"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A248" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="B248" s="17"/>
+      <c r="C248" s="17"/>
+      <c r="D248" s="17"/>
+      <c r="E248" s="17"/>
+      <c r="F248" s="17"/>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A249" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="B249" s="17"/>
+      <c r="C249" s="17"/>
+      <c r="D249" s="17"/>
+      <c r="E249" s="17"/>
+      <c r="F249" s="17"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A250" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="B250" s="17"/>
+      <c r="C250" s="17"/>
+      <c r="D250" s="17"/>
+      <c r="E250" s="17"/>
+      <c r="F250" s="17"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A251" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="B251" s="17"/>
+      <c r="C251" s="17"/>
+      <c r="D251" s="17"/>
+      <c r="E251" s="17"/>
+      <c r="F251" s="17"/>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A252" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="B252" s="17"/>
+      <c r="C252" s="17"/>
+      <c r="D252" s="17"/>
+      <c r="E252" s="17"/>
+      <c r="F252" s="17"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A253" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="B253" s="17"/>
+      <c r="C253" s="17"/>
+      <c r="D253" s="17"/>
+      <c r="E253" s="17"/>
+      <c r="F253" s="17"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A254" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="B254" s="17"/>
+      <c r="C254" s="17"/>
+      <c r="D254" s="17"/>
+      <c r="E254" s="17"/>
+      <c r="F254" s="17"/>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A255" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="B255" s="17"/>
+      <c r="C255" s="17"/>
+      <c r="D255" s="17"/>
+      <c r="E255" s="17"/>
+      <c r="F255" s="17"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A256" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="B256" s="17"/>
+      <c r="C256" s="17"/>
+      <c r="D256" s="17"/>
+      <c r="E256" s="17"/>
+      <c r="F256" s="17"/>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A257" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="B257" s="17"/>
+      <c r="C257" s="17"/>
+      <c r="D257" s="17"/>
+      <c r="E257" s="17"/>
+      <c r="F257" s="17"/>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A258" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="B258" s="17"/>
+      <c r="C258" s="17"/>
+      <c r="D258" s="17"/>
+      <c r="E258" s="17"/>
+      <c r="F258" s="17"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A259" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="B259" s="17"/>
+      <c r="C259" s="17"/>
+      <c r="D259" s="17"/>
+      <c r="E259" s="17"/>
+      <c r="F259" s="17"/>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A260" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="B260" s="17"/>
+      <c r="C260" s="17"/>
+      <c r="D260" s="17"/>
+      <c r="E260" s="17"/>
+      <c r="F260" s="17"/>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A261" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="B261" s="17"/>
+      <c r="C261" s="17"/>
+      <c r="D261" s="17"/>
+      <c r="E261" s="17"/>
+      <c r="F261" s="17"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A262" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="B262" s="17"/>
+      <c r="C262" s="17"/>
+      <c r="D262" s="17"/>
+      <c r="E262" s="17"/>
+      <c r="F262" s="17"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A263" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="B263" s="17"/>
+      <c r="C263" s="17"/>
+      <c r="D263" s="17"/>
+      <c r="E263" s="17"/>
+      <c r="F263" s="17"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A264" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="B264" s="17"/>
+      <c r="C264" s="17"/>
+      <c r="D264" s="17"/>
+      <c r="E264" s="17"/>
+      <c r="F264" s="17"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A265" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="B265" s="17"/>
+      <c r="C265" s="17"/>
+      <c r="D265" s="17"/>
+      <c r="E265" s="17"/>
+      <c r="F265" s="17"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A266" s="17" t="s">
+        <v>480</v>
+      </c>
+      <c r="B266" s="17"/>
+      <c r="C266" s="17"/>
+      <c r="D266" s="17"/>
+      <c r="E266" s="17"/>
+      <c r="F266" s="17"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A267" s="17" t="s">
+        <v>481</v>
+      </c>
+      <c r="B267" s="17"/>
+      <c r="C267" s="17"/>
+      <c r="D267" s="17"/>
+      <c r="E267" s="17"/>
+      <c r="F267" s="17"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A268" s="17" t="s">
+        <v>482</v>
+      </c>
+      <c r="B268" s="17"/>
+      <c r="C268" s="17"/>
+      <c r="D268" s="17"/>
+      <c r="E268" s="17"/>
+      <c r="F268" s="17"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A269" s="17" t="s">
+        <v>483</v>
+      </c>
+      <c r="B269" s="17"/>
+      <c r="C269" s="17"/>
+      <c r="D269" s="17"/>
+      <c r="E269" s="17"/>
+      <c r="F269" s="17"/>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A270" s="17" t="s">
+        <v>484</v>
+      </c>
+      <c r="B270" s="17"/>
+      <c r="C270" s="17"/>
+      <c r="D270" s="17"/>
+      <c r="E270" s="17"/>
+      <c r="F270" s="17"/>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A271" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="B271" s="17"/>
+      <c r="C271" s="17"/>
+      <c r="D271" s="17"/>
+      <c r="E271" s="17"/>
+      <c r="F271" s="17"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A272" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="B272" s="17"/>
+      <c r="C272" s="17"/>
+      <c r="D272" s="17"/>
+      <c r="E272" s="17"/>
+      <c r="F272" s="17"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A273" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="B273" s="17"/>
+      <c r="C273" s="17"/>
+      <c r="D273" s="17"/>
+      <c r="E273" s="17"/>
+      <c r="F273" s="17"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A274" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="B274" s="17"/>
+      <c r="C274" s="17"/>
+      <c r="D274" s="17"/>
+      <c r="E274" s="17"/>
+      <c r="F274" s="17"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A275" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="B275" s="17"/>
+      <c r="C275" s="17"/>
+      <c r="D275" s="17"/>
+      <c r="E275" s="17"/>
+      <c r="F275" s="17"/>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A276" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="B276" s="17"/>
+      <c r="C276" s="17"/>
+      <c r="D276" s="17"/>
+      <c r="E276" s="17"/>
+      <c r="F276" s="17"/>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A277" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="B277" s="17"/>
+      <c r="C277" s="17"/>
+      <c r="D277" s="17"/>
+      <c r="E277" s="17"/>
+      <c r="F277" s="17"/>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A278" s="17" t="s">
+        <v>492</v>
+      </c>
+      <c r="B278" s="17"/>
+      <c r="C278" s="17"/>
+      <c r="D278" s="17"/>
+      <c r="E278" s="17"/>
+      <c r="F278" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="662">
-    <mergeCell ref="A230:P231"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="D227:G227"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="A228:B228"/>
-    <mergeCell ref="D228:G228"/>
-    <mergeCell ref="H228:I228"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="D229:G229"/>
-    <mergeCell ref="H229:I229"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="D224:G224"/>
-    <mergeCell ref="H224:I224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="D225:G225"/>
-    <mergeCell ref="H225:I225"/>
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="D226:G226"/>
-    <mergeCell ref="H226:I226"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="D221:G221"/>
-    <mergeCell ref="H221:I221"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="D222:G222"/>
-    <mergeCell ref="H222:I222"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="D223:G223"/>
-    <mergeCell ref="H223:I223"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="D218:G218"/>
-    <mergeCell ref="H218:I218"/>
-    <mergeCell ref="A219:B219"/>
-    <mergeCell ref="D219:G219"/>
-    <mergeCell ref="H219:I219"/>
-    <mergeCell ref="A220:B220"/>
-    <mergeCell ref="D220:G220"/>
-    <mergeCell ref="H220:I220"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="D215:G215"/>
-    <mergeCell ref="H215:I215"/>
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="D216:G216"/>
-    <mergeCell ref="H216:I216"/>
-    <mergeCell ref="A217:B217"/>
-    <mergeCell ref="D217:G217"/>
-    <mergeCell ref="H217:I217"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="D212:G212"/>
-    <mergeCell ref="H212:I212"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="D213:G213"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="D214:G214"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="D209:G209"/>
-    <mergeCell ref="H209:I209"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="D210:G210"/>
-    <mergeCell ref="H210:I210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="D211:G211"/>
-    <mergeCell ref="H211:I211"/>
-    <mergeCell ref="A206:B206"/>
-    <mergeCell ref="D206:G206"/>
-    <mergeCell ref="H206:I206"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="D207:G207"/>
-    <mergeCell ref="H207:I207"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="D208:G208"/>
-    <mergeCell ref="H208:I208"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="D203:G203"/>
-    <mergeCell ref="H203:I203"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="D204:G204"/>
-    <mergeCell ref="H204:I204"/>
-    <mergeCell ref="A205:B205"/>
-    <mergeCell ref="D205:G205"/>
-    <mergeCell ref="H205:I205"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="D200:G200"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="D201:G201"/>
-    <mergeCell ref="H201:I201"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="D202:G202"/>
-    <mergeCell ref="H202:I202"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="D197:G197"/>
-    <mergeCell ref="H197:I197"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="D198:G198"/>
-    <mergeCell ref="H198:I198"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="D199:G199"/>
-    <mergeCell ref="H199:I199"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="D194:G194"/>
-    <mergeCell ref="H194:I194"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="D195:G195"/>
-    <mergeCell ref="H195:I195"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="D196:G196"/>
-    <mergeCell ref="H196:I196"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="D191:G191"/>
-    <mergeCell ref="H191:I191"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="D192:G192"/>
-    <mergeCell ref="H192:I192"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="D193:G193"/>
-    <mergeCell ref="H193:I193"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="D188:G188"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="D189:G189"/>
-    <mergeCell ref="H189:I189"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="D190:G190"/>
-    <mergeCell ref="H190:I190"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="D185:G185"/>
-    <mergeCell ref="H185:I185"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="D186:G186"/>
-    <mergeCell ref="H186:I186"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="D187:G187"/>
-    <mergeCell ref="H187:I187"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="D182:G182"/>
-    <mergeCell ref="H182:I182"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="D183:G183"/>
-    <mergeCell ref="H183:I183"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="D184:G184"/>
-    <mergeCell ref="H184:I184"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="D179:G179"/>
-    <mergeCell ref="H179:I179"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="D180:G180"/>
-    <mergeCell ref="H180:I180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="D181:G181"/>
-    <mergeCell ref="H181:I181"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="D176:G176"/>
-    <mergeCell ref="H176:I176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="D177:G177"/>
-    <mergeCell ref="H177:I177"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="D178:G178"/>
-    <mergeCell ref="H178:I178"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="D173:G173"/>
-    <mergeCell ref="H173:I173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="D174:G174"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="D175:G175"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="D170:G170"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="D171:G171"/>
-    <mergeCell ref="H171:I171"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="D172:G172"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="D167:G167"/>
-    <mergeCell ref="H167:I167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="D168:G168"/>
-    <mergeCell ref="H168:I168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="D169:G169"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="D164:G164"/>
-    <mergeCell ref="H164:I164"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="D165:G165"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="D166:G166"/>
-    <mergeCell ref="H166:I166"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="D161:G161"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="D162:G162"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="D163:G163"/>
-    <mergeCell ref="H163:I163"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="D158:G158"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="D159:G159"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="D160:G160"/>
-    <mergeCell ref="H160:I160"/>
+  <mergeCells count="661">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="D75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="D77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="D81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="D94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:G100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="D102:G102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="D104:G104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="D105:G105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="D108:G108"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="D109:G109"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="D110:G110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="D111:G111"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="D112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="D113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="D114:G114"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="D115:G115"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="D116:G116"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="D117:G117"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="D118:G118"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="D119:G119"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="D120:G120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="D121:G121"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="D122:G122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="D123:G123"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="D124:G124"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="D125:G125"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="D127:G127"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="D128:G128"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="D129:G129"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="D130:G130"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="D131:G131"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="D132:G132"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="D133:G133"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="D134:G134"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="D135:G135"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="D136:G136"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="D137:G137"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="A138:P138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="N144:O144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="N145:O145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="N146:O146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="N147:O147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="N148:O148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="N149:O149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="N150:O150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="N151:O151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="N152:O152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="N153:O153"/>
     <mergeCell ref="B154:C154"/>
     <mergeCell ref="G154:H154"/>
     <mergeCell ref="N154:O154"/>
@@ -10448,441 +11223,222 @@
     <mergeCell ref="A157:B157"/>
     <mergeCell ref="D157:G157"/>
     <mergeCell ref="H157:I157"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="N151:O151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="N152:O152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="N153:O153"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="N148:O148"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="N149:O149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="N150:O150"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="N145:O145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="N146:O146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="N147:O147"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="N142:O142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="N143:O143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="N144:O144"/>
-    <mergeCell ref="A138:P138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="N139:O139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="N140:O140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="N141:O141"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="D135:G135"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="D136:G136"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="D137:G137"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="D132:G132"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="D133:G133"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="D134:G134"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="D129:G129"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="D130:G130"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="D131:G131"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="D127:G127"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="D128:G128"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="D123:G123"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="D124:G124"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="D125:G125"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="D120:G120"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="D121:G121"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="D122:G122"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="D117:G117"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="D118:G118"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="D119:G119"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="D114:G114"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="D115:G115"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="D116:G116"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="D111:G111"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="D112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="D113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="D108:G108"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="D109:G109"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="D110:G110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="D105:G105"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="D102:G102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="D103:G103"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="D104:G104"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:G100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="D101:G101"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="D96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="D93:G93"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="D94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="D95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="D91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="D92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="D81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="D83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="D75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="D76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="D77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A20:P20"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="D158:G158"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="D159:G159"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="D160:G160"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="D161:G161"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="D162:G162"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="D163:G163"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="D164:G164"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="D165:G165"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="D166:G166"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="D167:G167"/>
+    <mergeCell ref="H167:I167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="D168:G168"/>
+    <mergeCell ref="H168:I168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="D169:G169"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="D170:G170"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="D171:G171"/>
+    <mergeCell ref="H171:I171"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="D172:G172"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="D173:G173"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="D174:G174"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="D175:G175"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="D176:G176"/>
+    <mergeCell ref="H176:I176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="D177:G177"/>
+    <mergeCell ref="H177:I177"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="D178:G178"/>
+    <mergeCell ref="H178:I178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="D179:G179"/>
+    <mergeCell ref="H179:I179"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="D180:G180"/>
+    <mergeCell ref="H180:I180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="D181:G181"/>
+    <mergeCell ref="H181:I181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="D182:G182"/>
+    <mergeCell ref="H182:I182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="D183:G183"/>
+    <mergeCell ref="H183:I183"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="D184:G184"/>
+    <mergeCell ref="H184:I184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="D185:G185"/>
+    <mergeCell ref="H185:I185"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="D186:G186"/>
+    <mergeCell ref="H186:I186"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="D187:G187"/>
+    <mergeCell ref="H187:I187"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="D188:G188"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="D189:G189"/>
+    <mergeCell ref="H189:I189"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="D190:G190"/>
+    <mergeCell ref="H190:I190"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="D191:G191"/>
+    <mergeCell ref="H191:I191"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="D192:G192"/>
+    <mergeCell ref="H192:I192"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="D193:G193"/>
+    <mergeCell ref="H193:I193"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="D194:G194"/>
+    <mergeCell ref="H194:I194"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="D195:G195"/>
+    <mergeCell ref="H195:I195"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="D196:G196"/>
+    <mergeCell ref="H196:I196"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="D197:G197"/>
+    <mergeCell ref="H197:I197"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="D198:G198"/>
+    <mergeCell ref="H198:I198"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="D199:G199"/>
+    <mergeCell ref="H199:I199"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="D200:G200"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="D201:G201"/>
+    <mergeCell ref="H201:I201"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="D202:G202"/>
+    <mergeCell ref="H202:I202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="D203:G203"/>
+    <mergeCell ref="H203:I203"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="D204:G204"/>
+    <mergeCell ref="H204:I204"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="D205:G205"/>
+    <mergeCell ref="H205:I205"/>
+    <mergeCell ref="A206:B206"/>
+    <mergeCell ref="D206:G206"/>
+    <mergeCell ref="H206:I206"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="D207:G207"/>
+    <mergeCell ref="H207:I207"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="D208:G208"/>
+    <mergeCell ref="H208:I208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="D209:G209"/>
+    <mergeCell ref="H209:I209"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="D210:G210"/>
+    <mergeCell ref="H210:I210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="D211:G211"/>
+    <mergeCell ref="H211:I211"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="D212:G212"/>
+    <mergeCell ref="H212:I212"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="D213:G213"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="D214:G214"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="D215:G215"/>
+    <mergeCell ref="H215:I215"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="D216:G216"/>
+    <mergeCell ref="H216:I216"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="D217:G217"/>
+    <mergeCell ref="H217:I217"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="D218:G218"/>
+    <mergeCell ref="H218:I218"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="D219:G219"/>
+    <mergeCell ref="H219:I219"/>
+    <mergeCell ref="A220:B220"/>
+    <mergeCell ref="D220:G220"/>
+    <mergeCell ref="H220:I220"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="D221:G221"/>
+    <mergeCell ref="H221:I221"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="D222:G222"/>
+    <mergeCell ref="H222:I222"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="D223:G223"/>
+    <mergeCell ref="H223:I223"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="D224:G224"/>
+    <mergeCell ref="H224:I224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="D225:G225"/>
+    <mergeCell ref="H225:I225"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="D226:G226"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="D227:G227"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="A228:B228"/>
+    <mergeCell ref="D228:G228"/>
+    <mergeCell ref="H228:I228"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="D229:G229"/>
+    <mergeCell ref="H229:I229"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
